--- a/app/api/catalog/catalog.xlsx
+++ b/app/api/catalog/catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DEV\snupia_utils\notequiz\app\api\catalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DEV\snupia_utils\snupia_utils_front\app\api\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64099F-5CCC-47DB-A9EF-EECD1D85BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A877D2B-2EB3-4E80-A33E-362DC820BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F493508-65EF-475B-AFEC-D457F536EF61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2F493508-65EF-475B-AFEC-D457F536EF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="144">
   <si>
     <t>Händel Klavier-Werke</t>
   </si>
@@ -110,269 +110,479 @@
     <t>Johann Sebastian Bach Das Wohltemperierte Klavier I·II</t>
   </si>
   <si>
+    <t>BWV 846-869, 870~893</t>
+  </si>
+  <si>
+    <t>선택 작성 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 작성 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNUPia 동아리방 소장자료 일람표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록 곡의 작품번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수록 곡 등 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인상주의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝/가요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 없음</t>
+  </si>
+  <si>
+    <t>분류 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>George Frideric Handel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 입력되는 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세광음악출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메니코 스카를라티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게오르크 프리드리히 헨델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요한 세바스티안 바흐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>composer_org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>composer_kor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>era</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_kor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르 및 시대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편곡자, 재편곡자 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작곡가 이름(원어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작곡가 이름(한글)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보존 상태(3~1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기증자 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나타 13번에 표시 되어있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catalog 시트 작성 요령:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승민, 김연준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Das Wohltemperierte Klavier I, Das Wohltemperierte Klavier II</t>
-  </si>
-  <si>
-    <t>BWV 846-869, 870~893</t>
-  </si>
-  <si>
-    <t>선택 작성 항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 작성 항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNUPia 동아리방 소장자료 일람표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수록 곡의 작품번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수록 곡 등 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고전 시대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로크 시대</t>
-  </si>
-  <si>
-    <t>바로크 시대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낭만주의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인상주의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝/가요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 없음</t>
-  </si>
-  <si>
-    <t>분류 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>George Frideric Handel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동으로 입력되는 항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세광음악출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메니코 스카를라티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게오르크 프리드리히 헨델</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요한 세바스티안 바흐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>composer_org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>composer_kor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>era</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글 제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_kor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transcription</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisher</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사(한글)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장르 및 시대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>편곡자, 재편곡자 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작곡가 이름(원어)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작곡가 이름(한글)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN (자료 썸네일 로딩에 사용)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>opus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보존 상태(3~1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기증자 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소나타 13번에 표시 되어있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catalog 시트 작성 요령:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김승민, 김연준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frederic Francois Chopin</t>
-  </si>
-  <si>
-    <t>Frederic Francois Chopin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레데리크 쇼팽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낭만주의</t>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sonata, Ballades, Impromptus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Das Wohltemperierte Klavier I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문상혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.S.Bach Das Wohletemperierte Klavier Teil I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태림출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Inventionen, 15 Symphonien, Kleine Praludien, Fughetten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.S.Bach Klavier-Werke 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.S.Bach Klavier-Werke 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partiten, Franzosische Ouverture, Italienisches Konzert, Chromatische Phantasie Und Fuge, Capriccio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대악보출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.S.Bach Klavier-Werke 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toccaten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼프강 아마데우스 모차르트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franz Joseph Haydn</t>
+  </si>
+  <si>
+    <t>Franz Joseph Haydn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프란츠 요제프 하이든</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트비히 판 베토벤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludwig van Beethoven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozart Klavier-Werke 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozart Klaviersonaten 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonate Nr.11-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonate Nr.1-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악춘추사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모차르트 소나타전집2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn Klavier-Werke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonatas, Vol.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonatas, Vol.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonatas, Vol.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonaten, Tema con Variazioni, Andante con Variazioni, Fantasia, Capriccio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn Complete Piano Sonatas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn Samtliche Klaviersonaten Band III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Henle Verlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn Piano Variations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn Variationen fur Klavier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piano Variations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haydn 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonaten 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozart Piano Sonantas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozart Klaviersonaten Band 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume II (스프링 제본)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로크</t>
+  </si>
+  <si>
+    <t>바로크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전</t>
+  </si>
+  <si>
+    <t>고전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류(영문)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baroque</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romantic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impressionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contemporary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jazz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>era_eng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webimg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지(웹) url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9790201810140.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/5101QsDC8PL._AC_UF1000,1000_QL80_.jpg</t>
   </si>
 </sst>
 </file>
@@ -523,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -603,21 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -635,21 +830,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -740,13 +920,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,7 +1024,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,22 +1036,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -828,7 +1066,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,21 +1078,35 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AA624B-2856-406D-86B9-A15DB269EDAC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="B2 C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1285,44 +1537,44 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>81</v>
+      <c r="A2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1333,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74BCD9F-D36E-4A23-8EC2-00565C35A9D4}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1347,2770 +1599,3495 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="25.796875" customWidth="1"/>
     <col min="6" max="6" width="16.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1"/>
-    <col min="10" max="10" width="25.09765625" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="9.796875" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" customWidth="1"/>
-    <col min="14" max="14" width="31.796875" customWidth="1"/>
-    <col min="16" max="16" width="23.5" customWidth="1"/>
+    <col min="7" max="8" width="16.09765625" customWidth="1"/>
+    <col min="9" max="9" width="21.09765625" customWidth="1"/>
+    <col min="10" max="10" width="19.19921875" customWidth="1"/>
+    <col min="11" max="11" width="25.09765625" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="9.796875" customWidth="1"/>
+    <col min="14" max="14" width="10.296875" customWidth="1"/>
+    <col min="15" max="15" width="31.796875" customWidth="1"/>
+    <col min="16" max="16" width="21.296875" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="24" t="str">
         <f>_xlfn.XLOOKUP(D3, Composer!A:A, Composer!B:B, "-")</f>
         <v>게오르크 프리드리히 헨델</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25" t="str">
+      <c r="F3" s="25"/>
+      <c r="G3" s="24" t="str">
         <f>_xlfn.XLOOKUP(D3, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="34" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H3" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E3, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="35">
+      <c r="M3" s="33">
         <v>3</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N3" s="25"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="24" t="str">
         <f>_xlfn.XLOOKUP(D4, Composer!A:A, Composer!B:B, "-")</f>
         <v>도메니코 스카를라티</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="25" t="str">
+      <c r="G4" s="24" t="str">
         <f>_xlfn.XLOOKUP(D4, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H4" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E4, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="37">
+      <c r="M4" s="35">
         <v>3</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N4" s="12"/>
+      <c r="O4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="24" t="str">
         <f>_xlfn.XLOOKUP(D5, Composer!A:A, Composer!B:B, "-")</f>
         <v>도메니코 스카를라티</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="25" t="str">
+      <c r="G5" s="24" t="str">
         <f>_xlfn.XLOOKUP(D5, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H5" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H5" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E5, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="37">
+      <c r="M5" s="35">
         <v>3</v>
       </c>
-      <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O5" s="44"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="24" t="str">
         <f>_xlfn.XLOOKUP(D6, Composer!A:A, Composer!B:B, "-")</f>
         <v>요한 세바스티안 바흐</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="25" t="str">
+      <c r="G6" s="24" t="str">
         <f>_xlfn.XLOOKUP(D6, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E6, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="37">
+      <c r="M6" s="35">
         <v>3</v>
       </c>
-      <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O6" s="44"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="24" t="str">
         <f>_xlfn.XLOOKUP(D7, Composer!A:A, Composer!B:B, "-")</f>
         <v>요한 세바스티안 바흐</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="25" t="str">
+      <c r="G7" s="24" t="str">
         <f>_xlfn.XLOOKUP(D7, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E7, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="L7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="37">
+      <c r="M7" s="35">
         <v>3</v>
       </c>
-      <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O7" s="44"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="24" t="str">
         <f>_xlfn.XLOOKUP(D8, Composer!A:A, Composer!B:B, "-")</f>
         <v>요한 세바스티안 바흐</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="25" t="str">
+      <c r="G8" s="24" t="str">
         <f>_xlfn.XLOOKUP(D8, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H8" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E8, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="L8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="37">
+      <c r="M8" s="35">
         <v>3</v>
       </c>
-      <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O8" s="44"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="24" t="str">
         <f>_xlfn.XLOOKUP(D9, Composer!A:A, Composer!B:B, "-")</f>
         <v>요한 세바스티안 바흐</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="25" t="str">
+      <c r="G9" s="24" t="str">
         <f>_xlfn.XLOOKUP(D9, Composer!A:A, Composer!C:C, "-")</f>
-        <v>바로크 시대</v>
-      </c>
-      <c r="H9" s="36" t="s">
+        <v>바로크</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E9, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="37">
+      <c r="M9" s="35">
         <v>3</v>
       </c>
-      <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="44"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D10, Composer!A:A, Composer!B:B, "-")</f>
+        <v>요한 세바스티안 바흐</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D10, Composer!A:A, Composer!C:C, "-")</f>
+        <v>바로크</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E10, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="27">
+        <v>2</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D11, Composer!A:A, Composer!B:B, "-")</f>
+        <v>요한 세바스티안 바흐</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D11, Composer!A:A, Composer!C:C, "-")</f>
+        <v>바로크</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E11, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="27">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D12, Composer!A:A, Composer!B:B, "-")</f>
+        <v>요한 세바스티안 바흐</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D12, Composer!A:A, Composer!C:C, "-")</f>
+        <v>바로크</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E12, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D10, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프레데리크 쇼팽</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D10, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만주의</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="27">
+        <v>3</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="12">
-        <v>1111111111</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D13, Composer!A:A, Composer!B:B, "-")</f>
+        <v>요한 세바스티안 바흐</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D13, Composer!A:A, Composer!C:C, "-")</f>
+        <v>바로크</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E13, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Baroque</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="28">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D11, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D11, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D12, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D12, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>0</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D13, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="25" t="str">
-        <f>_xlfn.XLOOKUP(D13, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="27">
+        <v>3</v>
+      </c>
       <c r="N13" s="12"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O13" s="44"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="25" t="str">
+      <c r="D14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="24" t="str">
         <f>_xlfn.XLOOKUP(D14, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>볼프강 아마데우스 모차르트</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="25" t="str">
+      <c r="G14" s="24" t="str">
         <f>_xlfn.XLOOKUP(D14, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E14, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="27">
+        <v>2</v>
+      </c>
       <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O14" s="44"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="25" t="str">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="24" t="str">
         <f>_xlfn.XLOOKUP(D15, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>볼프강 아마데우스 모차르트</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="24" t="str">
         <f>_xlfn.XLOOKUP(D15, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E15, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="27">
+        <v>3</v>
+      </c>
       <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O15" s="44"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>0</v>
-      </c>
-      <c r="B16" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="25" t="str">
+      <c r="D16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="24" t="str">
         <f>_xlfn.XLOOKUP(D16, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="25" t="str">
+      <c r="G16" s="24" t="str">
         <f>_xlfn.XLOOKUP(D16, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H16" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E16, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="27">
+        <v>2</v>
+      </c>
       <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="44"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
-        <v>0</v>
-      </c>
-      <c r="B17" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="25" t="str">
+      <c r="D17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="24" t="str">
         <f>_xlfn.XLOOKUP(D17, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="24" t="str">
         <f>_xlfn.XLOOKUP(D17, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H17" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E17, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="27">
+        <v>2</v>
+      </c>
       <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17" s="44"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="25" t="str">
+      <c r="D18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="24" t="str">
         <f>_xlfn.XLOOKUP(D18, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="25" t="str">
+      <c r="G18" s="24" t="str">
         <f>_xlfn.XLOOKUP(D18, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E18, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="12"/>
+      <c r="K18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="27">
+        <v>2</v>
+      </c>
       <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18" s="44"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
-        <v>0</v>
-      </c>
-      <c r="B19" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="25" t="str">
+      <c r="D19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="24" t="str">
         <f>_xlfn.XLOOKUP(D19, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="24" t="str">
         <f>_xlfn.XLOOKUP(D19, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H19" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E19, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="27">
+        <v>3</v>
+      </c>
       <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="44"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
-        <v>0</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="25" t="str">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="24" t="str">
         <f>_xlfn.XLOOKUP(D20, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="24" t="str">
         <f>_xlfn.XLOOKUP(D20, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H20" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E20, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="27">
+        <v>2</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="44"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
-        <v>0</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="25" t="str">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="24" t="str">
         <f>_xlfn.XLOOKUP(D21, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="25" t="str">
+      <c r="G21" s="24" t="str">
         <f>_xlfn.XLOOKUP(D21, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H21" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E21, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="27">
+        <v>2</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
-        <v>0</v>
-      </c>
-      <c r="B22" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="25" t="str">
+      <c r="D22" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="24" t="str">
         <f>_xlfn.XLOOKUP(D22, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>프란츠 요제프 하이든</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="25" t="str">
+      <c r="G22" s="24" t="str">
         <f>_xlfn.XLOOKUP(D22, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H22" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E22, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="27">
+        <v>3</v>
+      </c>
       <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" s="44"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
-        <v>0</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="25" t="str">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="24" t="str">
         <f>_xlfn.XLOOKUP(D23, Composer!A:A, Composer!B:B, "-")</f>
-        <v>정보 없음</v>
+        <v>볼프강 아마데우스 모차르트</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="24" t="str">
         <f>_xlfn.XLOOKUP(D23, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+        <v>고전</v>
+      </c>
+      <c r="H23" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E23, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Classical</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="27">
+        <v>3</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="44"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
         <v>0</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="25" t="str">
+      <c r="D24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="24" t="str">
         <f>_xlfn.XLOOKUP(D24, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="25" t="str">
+      <c r="G24" s="24" t="str">
         <f>_xlfn.XLOOKUP(D24, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E24, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O24" s="44"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>0</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="25" t="str">
+      <c r="D25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="24" t="str">
         <f>_xlfn.XLOOKUP(D25, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="25" t="str">
+      <c r="G25" s="24" t="str">
         <f>_xlfn.XLOOKUP(D25, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E25, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O25" s="44"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <v>0</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="25" t="str">
+      <c r="D26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="24" t="str">
         <f>_xlfn.XLOOKUP(D26, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="25" t="str">
+      <c r="G26" s="24" t="str">
         <f>_xlfn.XLOOKUP(D26, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E26, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26" s="44"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <v>0</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="25" t="str">
+      <c r="D27" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="24" t="str">
         <f>_xlfn.XLOOKUP(D27, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="25" t="str">
+      <c r="G27" s="24" t="str">
         <f>_xlfn.XLOOKUP(D27, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E27, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="27"/>
       <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O27" s="44"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
         <v>0</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="25" t="str">
+      <c r="D28" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="24" t="str">
         <f>_xlfn.XLOOKUP(D28, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="25" t="str">
+      <c r="G28" s="24" t="str">
         <f>_xlfn.XLOOKUP(D28, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E28, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28" s="44"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <v>0</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="25" t="str">
+      <c r="D29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="24" t="str">
         <f>_xlfn.XLOOKUP(D29, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="25" t="str">
+      <c r="G29" s="24" t="str">
         <f>_xlfn.XLOOKUP(D29, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E29, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
         <v>0</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="25" t="str">
+      <c r="D30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="24" t="str">
         <f>_xlfn.XLOOKUP(D30, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="25" t="str">
+      <c r="G30" s="24" t="str">
         <f>_xlfn.XLOOKUP(D30, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E30, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="27"/>
       <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
         <v>0</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="25" t="str">
+      <c r="D31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="24" t="str">
         <f>_xlfn.XLOOKUP(D31, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="25" t="str">
+      <c r="G31" s="24" t="str">
         <f>_xlfn.XLOOKUP(D31, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E31, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="27"/>
       <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O31" s="44"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
         <v>0</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="25" t="str">
+      <c r="D32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="str">
         <f>_xlfn.XLOOKUP(D32, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="25" t="str">
+      <c r="G32" s="24" t="str">
         <f>_xlfn.XLOOKUP(D32, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E32, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="27"/>
       <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O32" s="44"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
         <v>0</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="25" t="str">
+      <c r="D33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="24" t="str">
         <f>_xlfn.XLOOKUP(D33, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="25" t="str">
+      <c r="G33" s="24" t="str">
         <f>_xlfn.XLOOKUP(D33, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E33, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
         <v>0</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="25" t="str">
+      <c r="D34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="24" t="str">
         <f>_xlfn.XLOOKUP(D34, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="25" t="str">
+      <c r="G34" s="24" t="str">
         <f>_xlfn.XLOOKUP(D34, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E34, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <v>0</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="25" t="str">
+      <c r="D35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="24" t="str">
         <f>_xlfn.XLOOKUP(D35, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="25" t="str">
+      <c r="G35" s="24" t="str">
         <f>_xlfn.XLOOKUP(D35, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E35, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="27"/>
       <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O35" s="44"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
         <v>0</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="25" t="str">
+      <c r="D36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="24" t="str">
         <f>_xlfn.XLOOKUP(D36, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="25" t="str">
+      <c r="G36" s="24" t="str">
         <f>_xlfn.XLOOKUP(D36, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E36, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="27"/>
       <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O36" s="44"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="11">
         <v>0</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="25" t="str">
+      <c r="D37" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="24" t="str">
         <f>_xlfn.XLOOKUP(D37, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="25" t="str">
+      <c r="G37" s="24" t="str">
         <f>_xlfn.XLOOKUP(D37, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E37, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O37" s="44"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="11">
         <v>0</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="25" t="str">
+      <c r="D38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="24" t="str">
         <f>_xlfn.XLOOKUP(D38, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="25" t="str">
+      <c r="G38" s="24" t="str">
         <f>_xlfn.XLOOKUP(D38, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E38, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="27"/>
       <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O38" s="44"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="11">
         <v>0</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="25" t="str">
+      <c r="D39" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24" t="str">
         <f>_xlfn.XLOOKUP(D39, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="25" t="str">
+      <c r="G39" s="24" t="str">
         <f>_xlfn.XLOOKUP(D39, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E39, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="27"/>
       <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O39" s="44"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="11">
         <v>0</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="25" t="str">
+      <c r="D40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="24" t="str">
         <f>_xlfn.XLOOKUP(D40, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="25" t="str">
+      <c r="G40" s="24" t="str">
         <f>_xlfn.XLOOKUP(D40, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E40, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="27"/>
       <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O40" s="44"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="11">
         <v>0</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="25" t="str">
+      <c r="D41" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="24" t="str">
         <f>_xlfn.XLOOKUP(D41, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="25" t="str">
+      <c r="G41" s="24" t="str">
         <f>_xlfn.XLOOKUP(D41, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E41, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O41" s="44"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>0</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="25" t="str">
+      <c r="D42" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="24" t="str">
         <f>_xlfn.XLOOKUP(D42, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="25" t="str">
+      <c r="G42" s="24" t="str">
         <f>_xlfn.XLOOKUP(D42, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E42, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="27"/>
       <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O42" s="44"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
         <v>0</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="25" t="str">
+      <c r="D43" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="str">
         <f>_xlfn.XLOOKUP(D43, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="25" t="str">
+      <c r="G43" s="24" t="str">
         <f>_xlfn.XLOOKUP(D43, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E43, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O43" s="44"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
         <v>0</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="25" t="str">
+      <c r="D44" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="24" t="str">
         <f>_xlfn.XLOOKUP(D44, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="25" t="str">
+      <c r="G44" s="24" t="str">
         <f>_xlfn.XLOOKUP(D44, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E44, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="27"/>
       <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O44" s="44"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
         <v>0</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="25" t="str">
+      <c r="D45" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="24" t="str">
         <f>_xlfn.XLOOKUP(D45, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="25" t="str">
+      <c r="G45" s="24" t="str">
         <f>_xlfn.XLOOKUP(D45, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E45, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="27"/>
       <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O45" s="44"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="11">
         <v>0</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="25" t="str">
+      <c r="D46" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="24" t="str">
         <f>_xlfn.XLOOKUP(D46, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="25" t="str">
+      <c r="G46" s="24" t="str">
         <f>_xlfn.XLOOKUP(D46, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E46, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="27"/>
       <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O46" s="44"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="11">
         <v>0</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="25" t="str">
+      <c r="D47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="24" t="str">
         <f>_xlfn.XLOOKUP(D47, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="25" t="str">
+      <c r="G47" s="24" t="str">
         <f>_xlfn.XLOOKUP(D47, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E47, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="27"/>
       <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O47" s="44"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="11">
         <v>0</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="25" t="str">
+      <c r="D48" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="str">
         <f>_xlfn.XLOOKUP(D48, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="25" t="str">
+      <c r="G48" s="24" t="str">
         <f>_xlfn.XLOOKUP(D48, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E48, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="27"/>
       <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O48" s="44"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
         <v>0</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="25" t="str">
+      <c r="D49" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="24" t="str">
         <f>_xlfn.XLOOKUP(D49, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="25" t="str">
+      <c r="G49" s="24" t="str">
         <f>_xlfn.XLOOKUP(D49, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E49, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="27"/>
       <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O49" s="44"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="11">
         <v>0</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="25" t="str">
+      <c r="D50" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="24" t="str">
         <f>_xlfn.XLOOKUP(D50, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="25" t="str">
+      <c r="G50" s="24" t="str">
         <f>_xlfn.XLOOKUP(D50, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E50, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="27"/>
       <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O50" s="44"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="11">
         <v>0</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="25" t="str">
+      <c r="D51" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="24" t="str">
         <f>_xlfn.XLOOKUP(D51, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F51" s="12"/>
-      <c r="G51" s="25" t="str">
+      <c r="G51" s="24" t="str">
         <f>_xlfn.XLOOKUP(D51, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E51, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="27"/>
       <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O51" s="44"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="11">
         <v>0</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="25" t="str">
+      <c r="D52" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="24" t="str">
         <f>_xlfn.XLOOKUP(D52, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F52" s="12"/>
-      <c r="G52" s="25" t="str">
+      <c r="G52" s="24" t="str">
         <f>_xlfn.XLOOKUP(D52, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E52, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="27"/>
       <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O52" s="44"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="11">
         <v>0</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="25" t="str">
+      <c r="D53" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="24" t="str">
         <f>_xlfn.XLOOKUP(D53, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="25" t="str">
+      <c r="G53" s="24" t="str">
         <f>_xlfn.XLOOKUP(D53, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E53, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="27"/>
       <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O53" s="44"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="11">
         <v>0</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="25" t="str">
+      <c r="D54" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="24" t="str">
         <f>_xlfn.XLOOKUP(D54, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F54" s="12"/>
-      <c r="G54" s="25" t="str">
+      <c r="G54" s="24" t="str">
         <f>_xlfn.XLOOKUP(D54, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E54, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="27"/>
       <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O54" s="44"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="11">
         <v>0</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="25" t="str">
+      <c r="D55" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="24" t="str">
         <f>_xlfn.XLOOKUP(D55, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="25" t="str">
+      <c r="G55" s="24" t="str">
         <f>_xlfn.XLOOKUP(D55, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E55, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="27"/>
       <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O55" s="44"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="11">
         <v>0</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="25" t="str">
+      <c r="D56" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="24" t="str">
         <f>_xlfn.XLOOKUP(D56, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="25" t="str">
+      <c r="G56" s="24" t="str">
         <f>_xlfn.XLOOKUP(D56, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E56, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="27"/>
       <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O56" s="44"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="11">
         <v>0</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="25" t="str">
+      <c r="D57" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="24" t="str">
         <f>_xlfn.XLOOKUP(D57, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F57" s="12"/>
-      <c r="G57" s="25" t="str">
+      <c r="G57" s="24" t="str">
         <f>_xlfn.XLOOKUP(D57, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E57, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="27"/>
       <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O57" s="44"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="11">
         <v>0</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="25" t="str">
+      <c r="D58" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="24" t="str">
         <f>_xlfn.XLOOKUP(D58, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F58" s="12"/>
-      <c r="G58" s="25" t="str">
+      <c r="G58" s="24" t="str">
         <f>_xlfn.XLOOKUP(D58, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E58, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="27"/>
       <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O58" s="44"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="11">
         <v>0</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="25" t="str">
+      <c r="D59" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="24" t="str">
         <f>_xlfn.XLOOKUP(D59, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="25" t="str">
+      <c r="G59" s="24" t="str">
         <f>_xlfn.XLOOKUP(D59, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E59, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="27"/>
       <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O59" s="44"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="11">
         <v>0</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="25" t="str">
+      <c r="D60" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="24" t="str">
         <f>_xlfn.XLOOKUP(D60, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="25" t="str">
+      <c r="G60" s="24" t="str">
         <f>_xlfn.XLOOKUP(D60, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="H60" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E60, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="27"/>
       <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O60" s="44"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="11">
         <v>0</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="25" t="str">
+      <c r="D61" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="24" t="str">
         <f>_xlfn.XLOOKUP(D61, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="25" t="str">
+      <c r="G61" s="24" t="str">
         <f>_xlfn.XLOOKUP(D61, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H61" s="12"/>
+      <c r="H61" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E61, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="27"/>
       <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O61" s="44"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="11">
         <v>0</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="25" t="str">
+      <c r="D62" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="24" t="str">
         <f>_xlfn.XLOOKUP(D62, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F62" s="12"/>
-      <c r="G62" s="25" t="str">
+      <c r="G62" s="24" t="str">
         <f>_xlfn.XLOOKUP(D62, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H62" s="12"/>
+      <c r="H62" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E62, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="27"/>
       <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O62" s="44"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="11">
         <v>0</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="25" t="str">
+      <c r="D63" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="24" t="str">
         <f>_xlfn.XLOOKUP(D63, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="25" t="str">
+      <c r="G63" s="24" t="str">
         <f>_xlfn.XLOOKUP(D63, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E63, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="27"/>
       <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O63" s="44"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="11">
         <v>0</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="25" t="str">
+      <c r="D64" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="24" t="str">
         <f>_xlfn.XLOOKUP(D64, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F64" s="12"/>
-      <c r="G64" s="25" t="str">
+      <c r="G64" s="24" t="str">
         <f>_xlfn.XLOOKUP(D64, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E64, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="27"/>
       <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O64" s="44"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="11">
         <v>0</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="25" t="str">
+      <c r="D65" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="24" t="str">
         <f>_xlfn.XLOOKUP(D65, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F65" s="12"/>
-      <c r="G65" s="25" t="str">
+      <c r="G65" s="24" t="str">
         <f>_xlfn.XLOOKUP(D65, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H65" s="12"/>
+      <c r="H65" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E65, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="27"/>
       <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O65" s="44"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="11">
         <v>0</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="25" t="str">
+      <c r="D66" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="24" t="str">
         <f>_xlfn.XLOOKUP(D66, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="25" t="str">
+      <c r="G66" s="24" t="str">
         <f>_xlfn.XLOOKUP(D66, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H66" s="12"/>
+      <c r="H66" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E66, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="27"/>
       <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O66" s="44"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="11">
         <v>0</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="25" t="str">
+      <c r="D67" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="24" t="str">
         <f>_xlfn.XLOOKUP(D67, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="25" t="str">
+      <c r="G67" s="24" t="str">
         <f>_xlfn.XLOOKUP(D67, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H67" s="12"/>
+      <c r="H67" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E67, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="27"/>
       <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O67" s="44"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="11">
         <v>0</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="25" t="str">
+      <c r="D68" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="24" t="str">
         <f>_xlfn.XLOOKUP(D68, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="25" t="str">
+      <c r="G68" s="24" t="str">
         <f>_xlfn.XLOOKUP(D68, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H68" s="12"/>
+      <c r="H68" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E68, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="27"/>
       <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O68" s="44"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="11">
         <v>0</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="25" t="str">
+      <c r="D69" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="24" t="str">
         <f>_xlfn.XLOOKUP(D69, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="25" t="str">
+      <c r="G69" s="24" t="str">
         <f>_xlfn.XLOOKUP(D69, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H69" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E69, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="27"/>
       <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O69" s="44"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70" s="11">
         <v>0</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="25" t="str">
+      <c r="D70" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="24" t="str">
         <f>_xlfn.XLOOKUP(D70, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F70" s="12"/>
-      <c r="G70" s="25" t="str">
+      <c r="G70" s="24" t="str">
         <f>_xlfn.XLOOKUP(D70, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E70, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="27"/>
       <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O70" s="44"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" s="11">
         <v>0</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="25" t="str">
+      <c r="D71" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="24" t="str">
         <f>_xlfn.XLOOKUP(D71, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="25" t="str">
+      <c r="G71" s="24" t="str">
         <f>_xlfn.XLOOKUP(D71, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H71" s="12"/>
+      <c r="H71" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E71, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="27"/>
       <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O71" s="44"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" s="11">
         <v>0</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="25" t="str">
+      <c r="D72" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="24" t="str">
         <f>_xlfn.XLOOKUP(D72, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="25" t="str">
+      <c r="G72" s="24" t="str">
         <f>_xlfn.XLOOKUP(D72, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H72" s="12"/>
+      <c r="H72" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E72, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="27"/>
       <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O72" s="44"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73" s="11">
         <v>0</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="25" t="str">
+      <c r="D73" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="24" t="str">
         <f>_xlfn.XLOOKUP(D73, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="25" t="str">
+      <c r="G73" s="24" t="str">
         <f>_xlfn.XLOOKUP(D73, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E73, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="27"/>
       <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O73" s="44"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74" s="11">
         <v>0</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="25" t="str">
+      <c r="D74" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="24" t="str">
         <f>_xlfn.XLOOKUP(D74, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="25" t="str">
+      <c r="G74" s="24" t="str">
         <f>_xlfn.XLOOKUP(D74, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E74, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="27"/>
       <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O74" s="44"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75" s="11">
         <v>0</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
-      <c r="D75" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="25" t="str">
+      <c r="D75" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="24" t="str">
         <f>_xlfn.XLOOKUP(D75, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="25" t="str">
+      <c r="G75" s="24" t="str">
         <f>_xlfn.XLOOKUP(D75, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E75, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="27"/>
       <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O75" s="44"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76" s="11">
         <v>0</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
-      <c r="D76" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="25" t="str">
+      <c r="D76" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="24" t="str">
         <f>_xlfn.XLOOKUP(D76, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="25" t="str">
+      <c r="G76" s="24" t="str">
         <f>_xlfn.XLOOKUP(D76, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E76, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="27"/>
       <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O76" s="44"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77" s="11">
         <v>0</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="25" t="str">
+      <c r="D77" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="24" t="str">
         <f>_xlfn.XLOOKUP(D77, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="25" t="str">
+      <c r="G77" s="24" t="str">
         <f>_xlfn.XLOOKUP(D77, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E77, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="27"/>
       <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O77" s="44"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" s="11">
         <v>0</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
-      <c r="D78" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="25" t="str">
+      <c r="D78" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="24" t="str">
         <f>_xlfn.XLOOKUP(D78, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F78" s="12"/>
-      <c r="G78" s="25" t="str">
+      <c r="G78" s="24" t="str">
         <f>_xlfn.XLOOKUP(D78, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E78, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="27"/>
       <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O78" s="44"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" s="11">
         <v>0</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="25" t="str">
+      <c r="D79" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="24" t="str">
         <f>_xlfn.XLOOKUP(D79, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="25" t="str">
+      <c r="G79" s="24" t="str">
         <f>_xlfn.XLOOKUP(D79, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E79, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="27"/>
       <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O79" s="44"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80" s="11">
         <v>0</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="25" t="str">
+      <c r="D80" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="24" t="str">
         <f>_xlfn.XLOOKUP(D80, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="25" t="str">
+      <c r="G80" s="24" t="str">
         <f>_xlfn.XLOOKUP(D80, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E80, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="27"/>
       <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O80" s="44"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81" s="11">
         <v>0</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
-      <c r="D81" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="25" t="str">
+      <c r="D81" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="24" t="str">
         <f>_xlfn.XLOOKUP(D81, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="25" t="str">
+      <c r="G81" s="24" t="str">
         <f>_xlfn.XLOOKUP(D81, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H81" s="12"/>
+      <c r="H81" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E81, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="27"/>
       <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O81" s="44"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82" s="11">
         <v>0</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="25" t="str">
+      <c r="D82" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="24" t="str">
         <f>_xlfn.XLOOKUP(D82, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="25" t="str">
+      <c r="G82" s="24" t="str">
         <f>_xlfn.XLOOKUP(D82, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H82" s="12"/>
+      <c r="H82" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E82, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="27"/>
       <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O82" s="44"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" s="11">
         <v>0</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="25" t="str">
+      <c r="D83" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="24" t="str">
         <f>_xlfn.XLOOKUP(D83, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="25" t="str">
+      <c r="G83" s="24" t="str">
         <f>_xlfn.XLOOKUP(D83, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E83, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="27"/>
       <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O83" s="44"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84" s="11">
         <v>0</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="25" t="str">
+      <c r="D84" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="24" t="str">
         <f>_xlfn.XLOOKUP(D84, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="25" t="str">
+      <c r="G84" s="24" t="str">
         <f>_xlfn.XLOOKUP(D84, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H84" s="12"/>
+      <c r="H84" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E84, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="27"/>
       <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O84" s="44"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" s="11">
         <v>0</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="25" t="str">
+      <c r="D85" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="24" t="str">
         <f>_xlfn.XLOOKUP(D85, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="25" t="str">
+      <c r="G85" s="24" t="str">
         <f>_xlfn.XLOOKUP(D85, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H85" s="12"/>
+      <c r="H85" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E85, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="27"/>
       <c r="N85" s="12"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O85" s="44"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86" s="11">
         <v>0</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="25" t="str">
+      <c r="D86" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="24" t="str">
         <f>_xlfn.XLOOKUP(D86, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="25" t="str">
+      <c r="G86" s="24" t="str">
         <f>_xlfn.XLOOKUP(D86, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H86" s="12"/>
+      <c r="H86" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E86, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="27"/>
       <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O86" s="44"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="11">
         <v>0</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
-      <c r="D87" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="25" t="str">
+      <c r="D87" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="24" t="str">
         <f>_xlfn.XLOOKUP(D87, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="25" t="str">
+      <c r="G87" s="24" t="str">
         <f>_xlfn.XLOOKUP(D87, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H87" s="12"/>
+      <c r="H87" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E87, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="27"/>
       <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O87" s="44"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" s="11">
         <v>0</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="25" t="str">
+      <c r="D88" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="24" t="str">
         <f>_xlfn.XLOOKUP(D88, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="25" t="str">
+      <c r="G88" s="24" t="str">
         <f>_xlfn.XLOOKUP(D88, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H88" s="12"/>
+      <c r="H88" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E88, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="27"/>
       <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O88" s="44"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" s="11">
         <v>0</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="25" t="str">
+      <c r="D89" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="24" t="str">
         <f>_xlfn.XLOOKUP(D89, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="25" t="str">
+      <c r="G89" s="24" t="str">
         <f>_xlfn.XLOOKUP(D89, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E89, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="27"/>
       <c r="N89" s="12"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O89" s="44"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" s="11">
         <v>0</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
-      <c r="D90" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="25" t="str">
+      <c r="D90" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="24" t="str">
         <f>_xlfn.XLOOKUP(D90, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="25" t="str">
+      <c r="G90" s="24" t="str">
         <f>_xlfn.XLOOKUP(D90, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E90, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="27"/>
       <c r="N90" s="12"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O90" s="44"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="11">
         <v>0</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="25" t="str">
+      <c r="D91" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="24" t="str">
         <f>_xlfn.XLOOKUP(D91, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="25" t="str">
+      <c r="G91" s="24" t="str">
         <f>_xlfn.XLOOKUP(D91, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H91" s="12"/>
+      <c r="H91" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E91, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="27"/>
       <c r="N91" s="12"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O91" s="44"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92" s="11">
         <v>0</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
-      <c r="D92" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="25" t="str">
+      <c r="D92" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="24" t="str">
         <f>_xlfn.XLOOKUP(D92, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="25" t="str">
+      <c r="G92" s="24" t="str">
         <f>_xlfn.XLOOKUP(D92, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H92" s="12"/>
+      <c r="H92" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E92, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="27"/>
       <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O92" s="44"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93" s="11">
         <v>0</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="25" t="str">
+      <c r="D93" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="24" t="str">
         <f>_xlfn.XLOOKUP(D93, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="25" t="str">
+      <c r="G93" s="24" t="str">
         <f>_xlfn.XLOOKUP(D93, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E93, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="27"/>
       <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O93" s="44"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94" s="11">
         <v>0</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
-      <c r="D94" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="25" t="str">
+      <c r="D94" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="24" t="str">
         <f>_xlfn.XLOOKUP(D94, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F94" s="12"/>
-      <c r="G94" s="25" t="str">
+      <c r="G94" s="24" t="str">
         <f>_xlfn.XLOOKUP(D94, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H94" s="12"/>
+      <c r="H94" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E94, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="27"/>
       <c r="N94" s="12"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O94" s="44"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95" s="11">
         <v>0</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="25" t="str">
+      <c r="D95" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="24" t="str">
         <f>_xlfn.XLOOKUP(D95, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="25" t="str">
+      <c r="G95" s="24" t="str">
         <f>_xlfn.XLOOKUP(D95, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E95, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="27"/>
       <c r="N95" s="12"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O95" s="44"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96" s="11">
         <v>0</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="25" t="str">
+      <c r="D96" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="24" t="str">
         <f>_xlfn.XLOOKUP(D96, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F96" s="12"/>
-      <c r="G96" s="25" t="str">
+      <c r="G96" s="24" t="str">
         <f>_xlfn.XLOOKUP(D96, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H96" s="12"/>
+      <c r="H96" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E96, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="27"/>
       <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O96" s="44"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97" s="11">
         <v>0</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="25" t="str">
+      <c r="D97" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="24" t="str">
         <f>_xlfn.XLOOKUP(D97, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F97" s="12"/>
-      <c r="G97" s="25" t="str">
+      <c r="G97" s="24" t="str">
         <f>_xlfn.XLOOKUP(D97, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H97" s="12"/>
+      <c r="H97" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E97, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="27"/>
       <c r="N97" s="12"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O97" s="44"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98" s="11">
         <v>0</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
-      <c r="D98" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="25" t="str">
+      <c r="D98" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="24" t="str">
         <f>_xlfn.XLOOKUP(D98, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="25" t="str">
+      <c r="G98" s="24" t="str">
         <f>_xlfn.XLOOKUP(D98, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H98" s="12"/>
+      <c r="H98" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E98, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="27"/>
       <c r="N98" s="12"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O98" s="44"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99" s="11">
         <v>0</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="25" t="str">
+      <c r="D99" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="24" t="str">
         <f>_xlfn.XLOOKUP(D99, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="25" t="str">
+      <c r="G99" s="24" t="str">
         <f>_xlfn.XLOOKUP(D99, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E99, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
+      </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="27"/>
       <c r="N99" s="12"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O99" s="44"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100" s="11">
         <v>0</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="25" t="str">
+        <v>45</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="24" t="str">
         <f>_xlfn.XLOOKUP(D100, Composer!A:A, Composer!B:B, "-")</f>
         <v>정보 없음</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G100" s="25" t="str">
+        <v>45</v>
+      </c>
+      <c r="G100" s="24" t="str">
         <f>_xlfn.XLOOKUP(D100, Composer!A:A, Composer!C:C, "-")</f>
         <v>분류 없음</v>
       </c>
-      <c r="H100" s="12" t="s">
-        <v>50</v>
+      <c r="H100" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E100, Composer!B:B, Composer!D:D, "-")</f>
+        <v>No category</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L100" s="28">
+        <v>45</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100" s="27">
         <v>1</v>
       </c>
-      <c r="M100" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="N100" s="12" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O100" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:A100">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>NOT(AND(B3&lt;&gt;"", L3&lt;&gt;""))</formula>
+      <formula>NOT(AND(B3&lt;&gt;"", M3&lt;&gt;""))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>AND(B3&lt;&gt;"", L3&lt;&gt;"")</formula>
+      <formula>AND(B3&lt;&gt;"", M3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I100">
+  <conditionalFormatting sqref="J3:J100">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4121,7 +5098,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L100">
+  <conditionalFormatting sqref="M3:M100">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4133,7 +5110,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L100" xr:uid="{2D50BF57-0E49-476B-91E4-CA270C2D58E7}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M100" xr:uid="{2D50BF57-0E49-476B-91E4-CA270C2D58E7}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -4159,742 +5136,1149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E248679-745B-48E4-8746-9802D77C2DCB}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.19921875" customWidth="1"/>
     <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
+    <col min="3" max="4" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D2" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C2, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D3" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C3, Era!A:A, Era!B:B, "-")</f>
+        <v>Baroque</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D4" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C4, Era!A:A, Era!B:B, "-")</f>
+        <v>Baroque</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C5, Era!A:A, Era!B:B, "-")</f>
+        <v>Baroque</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D6" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C6, Era!A:A, Era!B:B, "-")</f>
+        <v>Classical</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D7" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C7, Era!A:A, Era!B:B, "-")</f>
+        <v>Classical</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="D8" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C8, Era!A:A, Era!B:B, "-")</f>
+        <v>Classical</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D9" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C9, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D10" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C10, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D11" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C11, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D12" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C12, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D13" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C13, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C14, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D15" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C15, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D16" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C16, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D17" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C17, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D18" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C18, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C19, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D20" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C20, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D21" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C21, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D22" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C22, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D23" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C23, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D24" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C24, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D25" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C25, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D26" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C26, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D27" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C27, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D28" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C28, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D29" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C29, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D30" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C30, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D31" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C31, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D32" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C32, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D33" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C33, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D34" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C34, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D35" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C35, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D36" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C36, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D37" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C37, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D38" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C38, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D39" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C39, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D40" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C40, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C41, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D42" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C42, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D43" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C43, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D44" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C44, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D45" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C45, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D46" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C46, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D47" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C47, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D48" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C48, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D49" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C49, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D50" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C50, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D51" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C51, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D52" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C52, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D53" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C53, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D54" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C54, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D55" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C55, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D56" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C56, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D57" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C57, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D58" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C58, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D59" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C59, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D60" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C60, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D61" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C61, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D62" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C62, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D63" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C63, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D64" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C64, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D65" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C65, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D66" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C66, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D67" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C67, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D68" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C68, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D69" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C69, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D70" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C70, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D71" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C71, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D72" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C72, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D73" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C73, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D74" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C74, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D75" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C75, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D76" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C76, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D77" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C77, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D78" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C78, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D79" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C79, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D80" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C80, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D81" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C81, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D82" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C82, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D83" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C83, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D84" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C84, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D85" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C85, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D86" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C86, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D87" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C87, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D88" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C88, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D89" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C89, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D90" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C90, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D91" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C91, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D92" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C92, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D93" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C93, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D94" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C94, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D95" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C95, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D96" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C96, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D97" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C97, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D98" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C98, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D99" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C99, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D100" s="27" t="str">
+        <f>_xlfn.XLOOKUP(C100, Era!A:A, Era!B:B, "-")</f>
+        <v>No category</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +6289,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8534EF15-6D2D-48E3-9597-F60190C561EB}">
           <x14:formula1>
-            <xm:f>Era!$A$2:$A$9</xm:f>
+            <xm:f>Era!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
@@ -4917,57 +6301,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7487AD00-99FE-4B0A-8742-B3FE570FE577}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>40</v>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/app/api/catalog/catalog.xlsx
+++ b/app/api/catalog/catalog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DEV\snupia_utils\snupia_utils_front\app\api\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B8158-57DB-4BB0-82E0-38BB57C09322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03FA9E-5AE8-4F04-AB6A-48872E12AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B146" authorId="0" shapeId="0" xr:uid="{B730C8E0-EFF5-403F-AAFF-ABA5F1BE8B86}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="910">
   <si>
     <t>title</t>
   </si>
@@ -28816,6 +28816,18 @@
   </si>
   <si>
     <t>김연준, 김승민</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 Préludes, Prélude Op.45, 12 Études Op.10, 12 Études Op.25, Trois Nouvelles Études</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight Concert Études</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight Concert Études op.40 piano solo - Prelude / Reverie / Toccatina / Reminiscence / Raillery / Pastoral / Intermezzo / Finale</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -29487,23 +29499,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED873"/>
-          <bgColor rgb="FF8ED873"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -29534,55 +29530,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED873"/>
-          <bgColor rgb="FF8ED873"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -29714,6 +29661,38 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8ED873"/>
+          <bgColor rgb="FF8ED873"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8ED873"/>
+          <bgColor rgb="FF8ED873"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9999"/>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -31017,8 +30996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A204" sqref="A1:A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33496,13 +33475,15 @@
       </c>
       <c r="J55" s="28"/>
       <c r="K55" s="28" t="s">
-        <v>178</v>
+        <v>907</v>
       </c>
       <c r="L55" s="28"/>
       <c r="M55" s="35">
         <v>3</v>
       </c>
-      <c r="N55" s="28"/>
+      <c r="N55" s="50" t="s">
+        <v>498</v>
+      </c>
       <c r="O55" s="34"/>
       <c r="P55" s="28"/>
       <c r="Q55" s="37" t="s">
@@ -33512,13 +33493,13 @@
     </row>
     <row r="56" spans="1:18" ht="17.25" customHeight="1">
       <c r="A56" s="29">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>467</v>
@@ -33541,29 +33522,29 @@
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28" t="s">
-        <v>181</v>
+        <v>907</v>
       </c>
       <c r="L56" s="28"/>
       <c r="M56" s="35">
         <v>3</v>
       </c>
-      <c r="N56" s="28"/>
+      <c r="N56" s="50"/>
       <c r="O56" s="34"/>
       <c r="P56" s="28"/>
       <c r="Q56" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R56" s="28"/>
     </row>
     <row r="57" spans="1:18" ht="17.25" customHeight="1">
       <c r="A57" s="29">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>631</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>630</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>467</v>
@@ -33586,31 +33567,29 @@
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>185</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="L57" s="28"/>
       <c r="M57" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N57" s="28"/>
       <c r="O57" s="34"/>
       <c r="P57" s="28"/>
       <c r="Q57" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R57" s="28"/>
     </row>
     <row r="58" spans="1:18" ht="17.25" customHeight="1">
       <c r="A58" s="29">
-        <v>56</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>632</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>467</v>
@@ -33633,27 +33612,31 @@
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="L58" s="28"/>
+        <v>184</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>185</v>
+      </c>
       <c r="M58" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" s="28"/>
       <c r="O58" s="34"/>
       <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
+      <c r="Q58" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="R58" s="28"/>
     </row>
     <row r="59" spans="1:18" ht="17.25" customHeight="1">
       <c r="A59" s="29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>467</v>
@@ -33672,11 +33655,11 @@
         <v>Romantic</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="J59" s="28"/>
       <c r="K59" s="28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L59" s="28"/>
       <c r="M59" s="35">
@@ -33684,21 +33667,19 @@
       </c>
       <c r="N59" s="28"/>
       <c r="O59" s="34"/>
-      <c r="P59" s="28" t="s">
-        <v>189</v>
-      </c>
+      <c r="P59" s="28"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="28"/>
     </row>
     <row r="60" spans="1:18" ht="17.25" customHeight="1">
       <c r="A60" s="29">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>467</v>
@@ -33707,9 +33688,7 @@
         <f>_xlfn.XLOOKUP(D60, Composer!A:A, Composer!B:B, "-")</f>
         <v>프레데리크 프랑수아 쇼팽</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>191</v>
-      </c>
+      <c r="F60" s="28"/>
       <c r="G60" s="24" t="str">
         <f>_xlfn.XLOOKUP(D60, Composer!A:A, Composer!C:C, "-")</f>
         <v>낭만</v>
@@ -33723,7 +33702,7 @@
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="35">
@@ -33732,29 +33711,31 @@
       <c r="N60" s="28"/>
       <c r="O60" s="34"/>
       <c r="P60" s="28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q60" s="28"/>
       <c r="R60" s="28"/>
     </row>
     <row r="61" spans="1:18" ht="17.25" customHeight="1">
       <c r="A61" s="29">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="E61" s="24" t="str">
         <f>_xlfn.XLOOKUP(D61, Composer!A:A, Composer!B:B, "-")</f>
-        <v>로베르트 슈만</v>
-      </c>
-      <c r="F61" s="28"/>
+        <v>프레데리크 프랑수아 쇼팽</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>191</v>
+      </c>
       <c r="G61" s="24" t="str">
         <f>_xlfn.XLOOKUP(D61, Composer!A:A, Composer!C:C, "-")</f>
         <v>낭만</v>
@@ -33768,31 +33749,29 @@
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28" t="s">
-        <v>195</v>
+        <v>611</v>
       </c>
       <c r="L61" s="28"/>
       <c r="M61" s="35">
         <v>3</v>
       </c>
-      <c r="N61" s="28" t="s">
-        <v>638</v>
-      </c>
+      <c r="N61" s="28"/>
       <c r="O61" s="34"/>
       <c r="P61" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q61" s="28"/>
       <c r="R61" s="28"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" customHeight="1">
       <c r="A62" s="29">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>194</v>
@@ -33815,29 +33794,31 @@
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="35">
         <v>3</v>
       </c>
-      <c r="N62" s="28"/>
+      <c r="N62" s="28" t="s">
+        <v>638</v>
+      </c>
       <c r="O62" s="34"/>
       <c r="P62" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q62" s="28"/>
       <c r="R62" s="28"/>
     </row>
     <row r="63" spans="1:18" ht="17.25" customHeight="1">
       <c r="A63" s="29">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>194</v>
@@ -33856,11 +33837,11 @@
         <v>Romantic</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J63" s="28"/>
       <c r="K63" s="28" t="s">
-        <v>641</v>
+        <v>198</v>
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="35">
@@ -33869,20 +33850,20 @@
       <c r="N63" s="28"/>
       <c r="O63" s="34"/>
       <c r="P63" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q63" s="28"/>
       <c r="R63" s="28"/>
     </row>
     <row r="64" spans="1:18" ht="17.25" customHeight="1">
       <c r="A64" s="29">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>194</v>
@@ -33901,35 +33882,33 @@
         <v>Romantic</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="J64" s="28"/>
       <c r="K64" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>203</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="L64" s="28"/>
       <c r="M64" s="35">
         <v>3</v>
       </c>
       <c r="N64" s="28"/>
       <c r="O64" s="34"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="37" t="s">
-        <v>204</v>
-      </c>
+      <c r="P64" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q64" s="28"/>
       <c r="R64" s="28"/>
     </row>
     <row r="65" spans="1:18" ht="17.25" customHeight="1">
       <c r="A65" s="29">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>194</v>
@@ -33948,31 +33927,35 @@
         <v>Romantic</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L65" s="28"/>
+        <v>643</v>
+      </c>
+      <c r="L65" s="28" t="s">
+        <v>203</v>
+      </c>
       <c r="M65" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" s="28"/>
       <c r="O65" s="34"/>
       <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
+      <c r="Q65" s="37" t="s">
+        <v>204</v>
+      </c>
       <c r="R65" s="28"/>
     </row>
     <row r="66" spans="1:18" ht="17.25" customHeight="1">
       <c r="A66" s="29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>194</v>
@@ -33995,28 +33978,28 @@
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" s="28"/>
       <c r="O66" s="34"/>
-      <c r="P66" s="28" t="s">
-        <v>209</v>
-      </c>
+      <c r="P66" s="28"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
     </row>
     <row r="67" spans="1:18" ht="17.25" customHeight="1">
       <c r="A67" s="29">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="28"/>
+        <v>645</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="D67" s="31" t="s">
         <v>194</v>
       </c>
@@ -34034,36 +34017,32 @@
         <v>Romantic</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="35">
         <v>3</v>
       </c>
-      <c r="N67" s="28" t="s">
-        <v>646</v>
-      </c>
+      <c r="N67" s="28"/>
       <c r="O67" s="34"/>
       <c r="P67" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
     </row>
     <row r="68" spans="1:18" ht="17.25" customHeight="1">
       <c r="A68" s="29">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>647</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>213</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C68" s="28"/>
       <c r="D68" s="31" t="s">
         <v>194</v>
       </c>
@@ -34081,33 +34060,35 @@
         <v>Romantic</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J68" s="28"/>
       <c r="K68" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L68" s="28"/>
       <c r="M68" s="35">
         <v>3</v>
       </c>
-      <c r="N68" s="28"/>
+      <c r="N68" s="28" t="s">
+        <v>646</v>
+      </c>
       <c r="O68" s="34"/>
       <c r="P68" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q68" s="28"/>
       <c r="R68" s="28"/>
     </row>
     <row r="69" spans="1:18" ht="17.25" customHeight="1">
       <c r="A69" s="29">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>194</v>
@@ -34130,7 +34111,7 @@
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L69" s="28"/>
       <c r="M69" s="35">
@@ -34139,27 +34120,27 @@
       <c r="N69" s="28"/>
       <c r="O69" s="34"/>
       <c r="P69" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q69" s="28"/>
       <c r="R69" s="28"/>
     </row>
     <row r="70" spans="1:18" ht="17.25" customHeight="1">
       <c r="A70" s="29">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E70" s="24" t="str">
         <f>_xlfn.XLOOKUP(D70, Composer!A:A, Composer!B:B, "-")</f>
-        <v>펠릭스 멘델스존</v>
+        <v>로베르트 슈만</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="24" t="str">
@@ -34171,11 +34152,11 @@
         <v>Romantic</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28" t="s">
-        <v>650</v>
+        <v>217</v>
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="35">
@@ -34184,27 +34165,27 @@
       <c r="N70" s="28"/>
       <c r="O70" s="34"/>
       <c r="P70" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q70" s="28"/>
       <c r="R70" s="28"/>
     </row>
     <row r="71" spans="1:18" ht="17.25" customHeight="1">
       <c r="A71" s="29">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="E71" s="24" t="str">
         <f>_xlfn.XLOOKUP(D71, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프란츠 페터 슈베르트</v>
+        <v>펠릭스 멘델스존</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="24" t="str">
@@ -34220,29 +34201,29 @@
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" s="28"/>
       <c r="O71" s="34"/>
       <c r="P71" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q71" s="28"/>
       <c r="R71" s="28"/>
     </row>
     <row r="72" spans="1:18" ht="17.25" customHeight="1">
       <c r="A72" s="29">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>132</v>
@@ -34265,36 +34246,36 @@
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L72" s="28" t="s">
-        <v>225</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="L72" s="28"/>
       <c r="M72" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72" s="28"/>
       <c r="O72" s="34"/>
       <c r="P72" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q72" s="28"/>
       <c r="R72" s="28"/>
     </row>
     <row r="73" spans="1:18" ht="17.25" customHeight="1">
       <c r="A73" s="29">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="28"/>
+        <v>653</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>224</v>
+      </c>
       <c r="D73" s="31" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="E73" s="24" t="str">
         <f>_xlfn.XLOOKUP(D73, Composer!A:A, Composer!B:B, "-")</f>
-        <v>로베르트 슈만</v>
+        <v>프란츠 페터 슈베르트</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="24" t="str">
@@ -34306,14 +34287,14 @@
         <v>Romantic</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="J73" s="28"/>
       <c r="K73" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M73" s="35">
         <v>3</v>
@@ -34321,17 +34302,17 @@
       <c r="N73" s="28"/>
       <c r="O73" s="34"/>
       <c r="P73" s="28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q73" s="28"/>
       <c r="R73" s="28"/>
     </row>
     <row r="74" spans="1:18" ht="17.25" customHeight="1">
       <c r="A74" s="29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C74" s="28"/>
       <c r="D74" s="31" t="s">
@@ -34351,28 +34332,32 @@
         <v>Romantic</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="L74" s="28"/>
+        <v>655</v>
+      </c>
+      <c r="L74" s="28" t="s">
+        <v>228</v>
+      </c>
       <c r="M74" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74" s="28"/>
       <c r="O74" s="34"/>
-      <c r="P74" s="28"/>
+      <c r="P74" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="Q74" s="28"/>
       <c r="R74" s="28"/>
     </row>
     <row r="75" spans="1:18" ht="17.25" customHeight="1">
       <c r="A75" s="29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C75" s="28"/>
       <c r="D75" s="31" t="s">
@@ -34392,130 +34377,124 @@
         <v>Romantic</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>232</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="L75" s="28"/>
       <c r="M75" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N75" s="28"/>
       <c r="O75" s="34"/>
-      <c r="P75" s="28" t="s">
-        <v>233</v>
-      </c>
+      <c r="P75" s="28"/>
       <c r="Q75" s="28"/>
       <c r="R75" s="28"/>
     </row>
     <row r="76" spans="1:18" ht="17.25" customHeight="1">
       <c r="A76" s="29">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="31" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="E76" s="24" t="str">
         <f>_xlfn.XLOOKUP(D76, Composer!A:A, Composer!B:B, "-")</f>
-        <v>볼프강 아마데우스 모차르트</v>
+        <v>로베르트 슈만</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="24" t="str">
         <f>_xlfn.XLOOKUP(D76, Composer!A:A, Composer!C:C, "-")</f>
-        <v>고전</v>
+        <v>낭만</v>
       </c>
       <c r="H76" s="24" t="str">
         <f>_xlfn.XLOOKUP(E76, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Classical</v>
+        <v>Romantic</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J76" s="28"/>
       <c r="K76" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="L76" s="28"/>
+        <v>657</v>
+      </c>
+      <c r="L76" s="28" t="s">
+        <v>232</v>
+      </c>
       <c r="M76" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N76" s="28"/>
       <c r="O76" s="34"/>
-      <c r="P76" s="28"/>
+      <c r="P76" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="Q76" s="28"/>
       <c r="R76" s="28"/>
     </row>
     <row r="77" spans="1:18" ht="17.25" customHeight="1">
       <c r="A77" s="29">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>235</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C77" s="28"/>
       <c r="D77" s="31" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E77" s="24" t="str">
         <f>_xlfn.XLOOKUP(D77, Composer!A:A, Composer!B:B, "-")</f>
-        <v>모리츠 모슈코프스키</v>
+        <v>볼프강 아마데우스 모차르트</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="24" t="str">
         <f>_xlfn.XLOOKUP(D77, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>고전</v>
       </c>
       <c r="H77" s="24" t="str">
         <f>_xlfn.XLOOKUP(E77, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Classical</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>237</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="L77" s="28"/>
       <c r="M77" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" s="28"/>
       <c r="O77" s="34"/>
-      <c r="P77" s="28" t="s">
-        <v>238</v>
-      </c>
+      <c r="P77" s="28"/>
       <c r="Q77" s="28"/>
       <c r="R77" s="28"/>
     </row>
     <row r="78" spans="1:18" ht="17.25" customHeight="1">
       <c r="A78" s="29">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E78" s="24" t="str">
         <f>_xlfn.XLOOKUP(D78, Composer!A:A, Composer!B:B, "-")</f>
-        <v>표트르 일리치 차이콥스키</v>
+        <v>모리츠 모슈코프스키</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="24" t="str">
@@ -34527,38 +34506,42 @@
         <v>Romantic</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="J78" s="28"/>
       <c r="K78" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="L78" s="28"/>
+        <v>660</v>
+      </c>
+      <c r="L78" s="28" t="s">
+        <v>237</v>
+      </c>
       <c r="M78" s="35">
         <v>3</v>
       </c>
       <c r="N78" s="28"/>
       <c r="O78" s="34"/>
       <c r="P78" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q78" s="28"/>
       <c r="R78" s="28"/>
     </row>
     <row r="79" spans="1:18" ht="17.25" customHeight="1">
       <c r="A79" s="29">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" s="28"/>
+        <v>661</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>239</v>
+      </c>
       <c r="D79" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E79" s="24" t="str">
         <f>_xlfn.XLOOKUP(D79, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프란츠 리스트</v>
+        <v>표트르 일리치 차이콥스키</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="24" t="str">
@@ -34570,30 +34553,30 @@
         <v>Romantic</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>52</v>
+        <v>626</v>
       </c>
       <c r="J79" s="28"/>
       <c r="K79" s="28" t="s">
-        <v>244</v>
+        <v>662</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="35">
-        <v>2</v>
-      </c>
-      <c r="N79" s="28" t="s">
-        <v>582</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N79" s="28"/>
       <c r="O79" s="34"/>
-      <c r="P79" s="28"/>
+      <c r="P79" s="28" t="s">
+        <v>241</v>
+      </c>
       <c r="Q79" s="28"/>
       <c r="R79" s="28"/>
     </row>
     <row r="80" spans="1:18" ht="17.25" customHeight="1">
       <c r="A80" s="29">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C80" s="28"/>
       <c r="D80" s="31" t="s">
@@ -34613,40 +34596,38 @@
         <v>Romantic</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="28" t="s">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="L80" s="28"/>
       <c r="M80" s="35">
-        <v>3</v>
-      </c>
-      <c r="N80" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="N80" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="O80" s="34"/>
-      <c r="P80" s="28" t="s">
-        <v>246</v>
-      </c>
+      <c r="P80" s="28"/>
       <c r="Q80" s="28"/>
       <c r="R80" s="28"/>
     </row>
     <row r="81" spans="1:18" ht="17.25" customHeight="1">
       <c r="A81" s="29">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>247</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C81" s="28"/>
       <c r="D81" s="31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E81" s="24" t="str">
         <f>_xlfn.XLOOKUP(D81, Composer!A:A, Composer!B:B, "-")</f>
-        <v>요하네스 브람스</v>
+        <v>프란츠 리스트</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="24" t="str">
@@ -34658,11 +34639,11 @@
         <v>Romantic</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L81" s="28"/>
       <c r="M81" s="35">
@@ -34670,19 +34651,21 @@
       </c>
       <c r="N81" s="28"/>
       <c r="O81" s="34"/>
-      <c r="P81" s="28"/>
+      <c r="P81" s="28" t="s">
+        <v>246</v>
+      </c>
       <c r="Q81" s="28"/>
       <c r="R81" s="28"/>
     </row>
     <row r="82" spans="1:18" ht="17.25" customHeight="1">
       <c r="A82" s="29">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>248</v>
@@ -34705,11 +34688,11 @@
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="28" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L82" s="28"/>
       <c r="M82" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N82" s="28"/>
       <c r="O82" s="34"/>
@@ -34719,18 +34702,20 @@
     </row>
     <row r="83" spans="1:18" ht="17.25" customHeight="1">
       <c r="A83" s="29">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" s="28"/>
+        <v>666</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>249</v>
+      </c>
       <c r="D83" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E83" s="24" t="str">
         <f>_xlfn.XLOOKUP(D83, Composer!A:A, Composer!B:B, "-")</f>
-        <v>요한 슈트라우스 2세</v>
+        <v>요하네스 브람스</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="24" t="str">
@@ -34742,15 +34727,15 @@
         <v>Romantic</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L83" s="28"/>
       <c r="M83" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83" s="28"/>
       <c r="O83" s="34"/>
@@ -34760,20 +34745,18 @@
     </row>
     <row r="84" spans="1:18" ht="17.25" customHeight="1">
       <c r="A84" s="29">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>252</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C84" s="28"/>
       <c r="D84" s="31" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E84" s="24" t="str">
         <f>_xlfn.XLOOKUP(D84, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프란츠 리스트</v>
+        <v>요한 슈트라우스 2세</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="24" t="str">
@@ -34785,11 +34768,11 @@
         <v>Romantic</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L84" s="28"/>
       <c r="M84" s="35">
@@ -34797,21 +34780,19 @@
       </c>
       <c r="N84" s="28"/>
       <c r="O84" s="34"/>
-      <c r="P84" s="28" t="s">
-        <v>253</v>
-      </c>
+      <c r="P84" s="28"/>
       <c r="Q84" s="28"/>
       <c r="R84" s="28"/>
     </row>
     <row r="85" spans="1:18" ht="17.25" customHeight="1">
       <c r="A85" s="29">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>243</v>
@@ -34834,7 +34815,7 @@
       </c>
       <c r="J85" s="28"/>
       <c r="K85" s="28" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L85" s="28"/>
       <c r="M85" s="35">
@@ -34843,20 +34824,20 @@
       <c r="N85" s="28"/>
       <c r="O85" s="34"/>
       <c r="P85" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q85" s="28"/>
       <c r="R85" s="28"/>
     </row>
     <row r="86" spans="1:18" ht="17.25" customHeight="1">
       <c r="A86" s="29">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>243</v>
@@ -34879,7 +34860,7 @@
       </c>
       <c r="J86" s="28"/>
       <c r="K86" s="28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L86" s="28"/>
       <c r="M86" s="35">
@@ -34888,17 +34869,17 @@
       <c r="N86" s="28"/>
       <c r="O86" s="34"/>
       <c r="P86" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q86" s="28"/>
       <c r="R86" s="28"/>
     </row>
     <row r="87" spans="1:18" ht="17.25" customHeight="1">
       <c r="A87" s="29">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>256</v>
@@ -34924,7 +34905,7 @@
       </c>
       <c r="J87" s="28"/>
       <c r="K87" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L87" s="28"/>
       <c r="M87" s="35">
@@ -34933,19 +34914,21 @@
       <c r="N87" s="28"/>
       <c r="O87" s="34"/>
       <c r="P87" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q87" s="28"/>
       <c r="R87" s="28"/>
     </row>
     <row r="88" spans="1:18" ht="17.25" customHeight="1">
       <c r="A88" s="29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C88" s="28"/>
+        <v>671</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>256</v>
+      </c>
       <c r="D88" s="31" t="s">
         <v>243</v>
       </c>
@@ -34963,11 +34946,11 @@
         <v>Romantic</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>260</v>
+        <v>588</v>
       </c>
       <c r="J88" s="28"/>
       <c r="K88" s="28" t="s">
-        <v>261</v>
+        <v>675</v>
       </c>
       <c r="L88" s="28"/>
       <c r="M88" s="35">
@@ -34976,21 +34959,19 @@
       <c r="N88" s="28"/>
       <c r="O88" s="34"/>
       <c r="P88" s="28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q88" s="28"/>
       <c r="R88" s="28"/>
     </row>
     <row r="89" spans="1:18" ht="17.25" customHeight="1">
       <c r="A89" s="29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>676</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>263</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C89" s="28"/>
       <c r="D89" s="31" t="s">
         <v>243</v>
       </c>
@@ -35008,11 +34989,11 @@
         <v>Romantic</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>626</v>
+        <v>260</v>
       </c>
       <c r="J89" s="28"/>
       <c r="K89" s="28" t="s">
-        <v>677</v>
+        <v>261</v>
       </c>
       <c r="L89" s="28"/>
       <c r="M89" s="35">
@@ -35020,21 +35001,21 @@
       </c>
       <c r="N89" s="28"/>
       <c r="O89" s="34"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="38" t="s">
-        <v>264</v>
-      </c>
+      <c r="P89" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q89" s="28"/>
       <c r="R89" s="28"/>
     </row>
     <row r="90" spans="1:18" ht="17.25" customHeight="1">
       <c r="A90" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>243</v>
@@ -35057,7 +35038,7 @@
       </c>
       <c r="J90" s="28"/>
       <c r="K90" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L90" s="28"/>
       <c r="M90" s="35">
@@ -35066,20 +35047,20 @@
       <c r="N90" s="28"/>
       <c r="O90" s="34"/>
       <c r="P90" s="28"/>
-      <c r="Q90" s="37" t="s">
-        <v>266</v>
+      <c r="Q90" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="R90" s="28"/>
     </row>
     <row r="91" spans="1:18" ht="17.25" customHeight="1">
       <c r="A91" s="29">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>243</v>
@@ -35102,7 +35083,7 @@
       </c>
       <c r="J91" s="28"/>
       <c r="K91" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L91" s="28"/>
       <c r="M91" s="35">
@@ -35112,18 +35093,20 @@
       <c r="O91" s="34"/>
       <c r="P91" s="28"/>
       <c r="Q91" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R91" s="28"/>
     </row>
     <row r="92" spans="1:18" ht="17.25" customHeight="1">
       <c r="A92" s="29">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C92" s="28"/>
+        <v>680</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>267</v>
+      </c>
       <c r="D92" s="31" t="s">
         <v>243</v>
       </c>
@@ -35141,28 +35124,30 @@
         <v>Romantic</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="J92" s="28"/>
       <c r="K92" s="28" t="s">
-        <v>261</v>
+        <v>681</v>
       </c>
       <c r="L92" s="28"/>
       <c r="M92" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92" s="28"/>
       <c r="O92" s="34"/>
       <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
+      <c r="Q92" s="37" t="s">
+        <v>268</v>
+      </c>
       <c r="R92" s="28"/>
     </row>
     <row r="93" spans="1:18" ht="17.25" customHeight="1">
       <c r="A93" s="29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="28"/>
       <c r="D93" s="31" t="s">
@@ -35182,15 +35167,15 @@
         <v>Romantic</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="J93" s="28"/>
       <c r="K93" s="28" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L93" s="28"/>
       <c r="M93" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" s="28"/>
       <c r="O93" s="34"/>
@@ -35200,7 +35185,7 @@
     </row>
     <row r="94" spans="1:18" ht="17.25" customHeight="1">
       <c r="A94" s="29">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>270</v>
@@ -35223,34 +35208,30 @@
         <v>Romantic</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J94" s="28"/>
       <c r="K94" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L94" s="28"/>
       <c r="M94" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N94" s="28"/>
       <c r="O94" s="34"/>
-      <c r="P94" s="28" t="s">
-        <v>273</v>
-      </c>
+      <c r="P94" s="28"/>
       <c r="Q94" s="28"/>
       <c r="R94" s="28"/>
     </row>
     <row r="95" spans="1:18" ht="17.25" customHeight="1">
       <c r="A95" s="29">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>682</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>274</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C95" s="28"/>
       <c r="D95" s="31" t="s">
         <v>243</v>
       </c>
@@ -35268,35 +35249,33 @@
         <v>Romantic</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J95" s="28"/>
       <c r="K95" s="28" t="s">
-        <v>683</v>
+        <v>272</v>
       </c>
       <c r="L95" s="28"/>
       <c r="M95" s="35">
         <v>3</v>
       </c>
-      <c r="N95" s="28" t="s">
-        <v>684</v>
-      </c>
+      <c r="N95" s="28"/>
       <c r="O95" s="34"/>
       <c r="P95" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q95" s="28"/>
       <c r="R95" s="28"/>
     </row>
     <row r="96" spans="1:18" ht="17.25" customHeight="1">
       <c r="A96" s="29">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>243</v>
@@ -35319,34 +35298,38 @@
       </c>
       <c r="J96" s="28"/>
       <c r="K96" s="28" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="L96" s="28"/>
       <c r="M96" s="35">
         <v>3</v>
       </c>
-      <c r="N96" s="28"/>
+      <c r="N96" s="28" t="s">
+        <v>684</v>
+      </c>
       <c r="O96" s="34"/>
       <c r="P96" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q96" s="28"/>
       <c r="R96" s="28"/>
     </row>
     <row r="97" spans="1:18" ht="17.25" customHeight="1">
       <c r="A97" s="29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C97" s="28"/>
+        <v>685</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>276</v>
+      </c>
       <c r="D97" s="31" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E97" s="24" t="str">
         <f>_xlfn.XLOOKUP(D97, Composer!A:A, Composer!B:B, "-")</f>
-        <v>펠릭스 멘델스존</v>
+        <v>프란츠 리스트</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="24" t="str">
@@ -35358,32 +35341,30 @@
         <v>Romantic</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>52</v>
+        <v>588</v>
       </c>
       <c r="J97" s="28"/>
       <c r="K97" s="28" t="s">
-        <v>279</v>
+        <v>686</v>
       </c>
       <c r="L97" s="28"/>
       <c r="M97" s="35">
-        <v>2</v>
-      </c>
-      <c r="N97" s="28" t="s">
-        <v>582</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N97" s="28"/>
       <c r="O97" s="34"/>
       <c r="P97" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q97" s="28"/>
       <c r="R97" s="28"/>
     </row>
     <row r="98" spans="1:18" ht="17.25" customHeight="1">
       <c r="A98" s="29">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C98" s="28"/>
       <c r="D98" s="31" t="s">
@@ -35403,40 +35384,40 @@
         <v>Romantic</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>589</v>
+        <v>52</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="28" t="s">
-        <v>687</v>
+        <v>279</v>
       </c>
       <c r="L98" s="28"/>
       <c r="M98" s="35">
-        <v>3</v>
-      </c>
-      <c r="N98" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="O98" s="34"/>
       <c r="P98" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q98" s="28"/>
       <c r="R98" s="28"/>
     </row>
     <row r="99" spans="1:18" ht="17.25" customHeight="1">
       <c r="A99" s="29">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>283</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C99" s="28"/>
       <c r="D99" s="31" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="E99" s="24" t="str">
         <f>_xlfn.XLOOKUP(D99, Composer!A:A, Composer!B:B, "-")</f>
-        <v>카를 마리아 폰 베버</v>
+        <v>펠릭스 멘델스존</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="24" t="str">
@@ -35448,11 +35429,11 @@
         <v>Romantic</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J99" s="28"/>
       <c r="K99" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L99" s="28"/>
       <c r="M99" s="35">
@@ -35461,20 +35442,20 @@
       <c r="N99" s="28"/>
       <c r="O99" s="34"/>
       <c r="P99" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q99" s="28"/>
       <c r="R99" s="28"/>
     </row>
     <row r="100" spans="1:18" ht="17.25" customHeight="1">
       <c r="A100" s="29">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>284</v>
@@ -35497,7 +35478,7 @@
       </c>
       <c r="J100" s="28"/>
       <c r="K100" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L100" s="28"/>
       <c r="M100" s="35">
@@ -35506,25 +35487,27 @@
       <c r="N100" s="28"/>
       <c r="O100" s="34"/>
       <c r="P100" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q100" s="28"/>
       <c r="R100" s="28"/>
     </row>
     <row r="101" spans="1:18" ht="17.25" customHeight="1">
       <c r="A101" s="29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" s="28"/>
+        <v>690</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>286</v>
+      </c>
       <c r="D101" s="31" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E101" s="24" t="str">
         <f>_xlfn.XLOOKUP(D101, Composer!A:A, Composer!B:B, "-")</f>
-        <v>안토닌 레오폴트 드보르자크</v>
+        <v>카를 마리아 폰 베버</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="24" t="str">
@@ -35536,11 +35519,11 @@
         <v>Romantic</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="J101" s="28"/>
       <c r="K101" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L101" s="28"/>
       <c r="M101" s="35">
@@ -35549,25 +35532,25 @@
       <c r="N101" s="28"/>
       <c r="O101" s="34"/>
       <c r="P101" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q101" s="28"/>
       <c r="R101" s="28"/>
     </row>
     <row r="102" spans="1:18" ht="17.25" customHeight="1">
       <c r="A102" s="29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C102" s="28"/>
       <c r="D102" s="31" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E102" s="24" t="str">
         <f>_xlfn.XLOOKUP(D102, Composer!A:A, Composer!B:B, "-")</f>
-        <v>샤를발랑탱 알캉</v>
+        <v>안토닌 레오폴트 드보르자크</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="24" t="str">
@@ -35579,11 +35562,11 @@
         <v>Romantic</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>293</v>
+        <v>602</v>
       </c>
       <c r="J102" s="28"/>
       <c r="K102" s="28" t="s">
-        <v>294</v>
+        <v>692</v>
       </c>
       <c r="L102" s="28"/>
       <c r="M102" s="35">
@@ -35592,25 +35575,25 @@
       <c r="N102" s="28"/>
       <c r="O102" s="34"/>
       <c r="P102" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q102" s="28"/>
       <c r="R102" s="28"/>
     </row>
     <row r="103" spans="1:18" ht="17.25" customHeight="1">
       <c r="A103" s="29">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C103" s="28"/>
       <c r="D103" s="31" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E103" s="24" t="str">
         <f>_xlfn.XLOOKUP(D103, Composer!A:A, Composer!B:B, "-")</f>
-        <v>카를 마리아 폰 베버</v>
+        <v>샤를발랑탱 알캉</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="24" t="str">
@@ -35622,11 +35605,11 @@
         <v>Romantic</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>591</v>
+        <v>293</v>
       </c>
       <c r="J103" s="28"/>
       <c r="K103" s="28" t="s">
-        <v>693</v>
+        <v>294</v>
       </c>
       <c r="L103" s="28"/>
       <c r="M103" s="35">
@@ -35635,43 +35618,41 @@
       <c r="N103" s="28"/>
       <c r="O103" s="34"/>
       <c r="P103" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q103" s="28"/>
       <c r="R103" s="28"/>
     </row>
     <row r="104" spans="1:18" ht="17.25" customHeight="1">
       <c r="A104" s="29">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>299</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" s="28"/>
       <c r="D104" s="31" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E104" s="24" t="str">
         <f>_xlfn.XLOOKUP(D104, Composer!A:A, Composer!B:B, "-")</f>
-        <v>모리스 라벨</v>
+        <v>카를 마리아 폰 베버</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="24" t="str">
         <f>_xlfn.XLOOKUP(D104, Composer!A:A, Composer!C:C, "-")</f>
-        <v>인상주의</v>
+        <v>낭만</v>
       </c>
       <c r="H104" s="24" t="str">
         <f>_xlfn.XLOOKUP(E104, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Impressionism</v>
+        <v>Romantic</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="J104" s="28"/>
       <c r="K104" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L104" s="28"/>
       <c r="M104" s="35">
@@ -35679,18 +35660,21 @@
       </c>
       <c r="N104" s="28"/>
       <c r="O104" s="34"/>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="37" t="s">
-        <v>301</v>
-      </c>
+      <c r="P104" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q104" s="28"/>
       <c r="R104" s="28"/>
     </row>
     <row r="105" spans="1:18" ht="17.25" customHeight="1">
       <c r="A105" s="29">
-        <v>103</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>302</v>
+        <v>102</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="D105" s="31" t="s">
         <v>300</v>
@@ -35709,11 +35693,11 @@
         <v>Impressionism</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="J105" s="28"/>
       <c r="K105" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L105" s="28"/>
       <c r="M105" s="35">
@@ -35722,39 +35706,40 @@
       <c r="N105" s="28"/>
       <c r="O105" s="34"/>
       <c r="P105" s="28"/>
-      <c r="Q105" s="28"/>
+      <c r="Q105" s="37" t="s">
+        <v>301</v>
+      </c>
       <c r="R105" s="28"/>
     </row>
     <row r="106" spans="1:18" ht="17.25" customHeight="1">
       <c r="A106" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C106" s="28"/>
+        <v>302</v>
+      </c>
       <c r="D106" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E106" s="24" t="str">
         <f>_xlfn.XLOOKUP(D106, Composer!A:A, Composer!B:B, "-")</f>
-        <v>가브리엘 위르뱅 포레</v>
+        <v>모리스 라벨</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="24" t="str">
         <f>_xlfn.XLOOKUP(D106, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>인상주의</v>
       </c>
       <c r="H106" s="24" t="str">
         <f>_xlfn.XLOOKUP(E106, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Impressionism</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>584</v>
       </c>
       <c r="J106" s="28"/>
       <c r="K106" s="28" t="s">
-        <v>305</v>
+        <v>695</v>
       </c>
       <c r="L106" s="28"/>
       <c r="M106" s="35">
@@ -35768,10 +35753,10 @@
     </row>
     <row r="107" spans="1:18" ht="17.25" customHeight="1">
       <c r="A107" s="29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>696</v>
+        <v>303</v>
       </c>
       <c r="C107" s="28"/>
       <c r="D107" s="31" t="s">
@@ -35795,7 +35780,7 @@
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="28" t="s">
-        <v>697</v>
+        <v>305</v>
       </c>
       <c r="L107" s="28"/>
       <c r="M107" s="35">
@@ -35803,18 +35788,16 @@
       </c>
       <c r="N107" s="28"/>
       <c r="O107" s="34"/>
-      <c r="P107" s="28" t="s">
-        <v>306</v>
-      </c>
+      <c r="P107" s="28"/>
       <c r="Q107" s="28"/>
       <c r="R107" s="28"/>
     </row>
     <row r="108" spans="1:18" ht="17.25" customHeight="1">
       <c r="A108" s="29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>307</v>
+        <v>696</v>
       </c>
       <c r="C108" s="28"/>
       <c r="D108" s="31" t="s">
@@ -35838,7 +35821,7 @@
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28" t="s">
-        <v>308</v>
+        <v>697</v>
       </c>
       <c r="L108" s="28"/>
       <c r="M108" s="35">
@@ -35846,24 +35829,26 @@
       </c>
       <c r="N108" s="28"/>
       <c r="O108" s="34"/>
-      <c r="P108" s="28"/>
+      <c r="P108" s="28" t="s">
+        <v>306</v>
+      </c>
       <c r="Q108" s="28"/>
       <c r="R108" s="28"/>
     </row>
     <row r="109" spans="1:18" ht="17.25" customHeight="1">
       <c r="A109" s="29">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C109" s="28"/>
       <c r="D109" s="31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E109" s="24" t="str">
         <f>_xlfn.XLOOKUP(D109, Composer!A:A, Composer!B:B, "-")</f>
-        <v>아돌프 폰 헨젤트</v>
+        <v>가브리엘 위르뱅 포레</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="24" t="str">
@@ -35875,11 +35860,11 @@
         <v>Romantic</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>311</v>
+        <v>584</v>
       </c>
       <c r="J109" s="28"/>
       <c r="K109" s="28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L109" s="28"/>
       <c r="M109" s="35">
@@ -35887,42 +35872,40 @@
       </c>
       <c r="N109" s="28"/>
       <c r="O109" s="34"/>
-      <c r="P109" s="28" t="s">
-        <v>313</v>
-      </c>
+      <c r="P109" s="28"/>
       <c r="Q109" s="28"/>
       <c r="R109" s="28"/>
     </row>
     <row r="110" spans="1:18" ht="17.25" customHeight="1">
       <c r="A110" s="29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C110" s="28"/>
       <c r="D110" s="31" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E110" s="24" t="str">
         <f>_xlfn.XLOOKUP(D110, Composer!A:A, Composer!B:B, "-")</f>
-        <v>모리스 라벨</v>
+        <v>아돌프 폰 헨젤트</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="24" t="str">
         <f>_xlfn.XLOOKUP(D110, Composer!A:A, Composer!C:C, "-")</f>
-        <v>인상주의</v>
+        <v>낭만</v>
       </c>
       <c r="H110" s="24" t="str">
         <f>_xlfn.XLOOKUP(E110, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Impressionism</v>
+        <v>Romantic</v>
       </c>
       <c r="I110" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J110" s="28"/>
       <c r="K110" s="28" t="s">
-        <v>698</v>
+        <v>312</v>
       </c>
       <c r="L110" s="28"/>
       <c r="M110" s="35">
@@ -35931,17 +35914,17 @@
       <c r="N110" s="28"/>
       <c r="O110" s="34"/>
       <c r="P110" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q110" s="28"/>
       <c r="R110" s="28"/>
     </row>
     <row r="111" spans="1:18" ht="17.25" customHeight="1">
       <c r="A111" s="29">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C111" s="28"/>
       <c r="D111" s="31" t="s">
@@ -35961,11 +35944,11 @@
         <v>Impressionism</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>602</v>
+        <v>315</v>
       </c>
       <c r="J111" s="28"/>
       <c r="K111" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L111" s="28"/>
       <c r="M111" s="35">
@@ -35974,41 +35957,41 @@
       <c r="N111" s="28"/>
       <c r="O111" s="34"/>
       <c r="P111" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q111" s="28"/>
       <c r="R111" s="28"/>
     </row>
     <row r="112" spans="1:18" ht="17.25" customHeight="1">
       <c r="A112" s="29">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C112" s="28"/>
       <c r="D112" s="31" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E112" s="24" t="str">
         <f>_xlfn.XLOOKUP(D112, Composer!A:A, Composer!B:B, "-")</f>
-        <v>멜라니 보니스</v>
+        <v>모리스 라벨</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="24" t="str">
         <f>_xlfn.XLOOKUP(D112, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>인상주의</v>
       </c>
       <c r="H112" s="24" t="str">
         <f>_xlfn.XLOOKUP(E112, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Impressionism</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J112" s="28"/>
       <c r="K112" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L112" s="28"/>
       <c r="M112" s="35">
@@ -36016,28 +35999,26 @@
       </c>
       <c r="N112" s="28"/>
       <c r="O112" s="34"/>
-      <c r="P112" s="4" t="s">
-        <v>321</v>
+      <c r="P112" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="Q112" s="28"/>
       <c r="R112" s="28"/>
     </row>
     <row r="113" spans="1:18" ht="17.25" customHeight="1">
       <c r="A113" s="29">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C113" s="28"/>
       <c r="D113" s="31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E113" s="24" t="str">
         <f>_xlfn.XLOOKUP(D113, Composer!A:A, Composer!B:B, "-")</f>
-        <v>에드바르 하게루프 그리그</v>
+        <v>멜라니 보니스</v>
       </c>
       <c r="F113" s="28"/>
       <c r="G113" s="24" t="str">
@@ -36049,38 +36030,40 @@
         <v>Romantic</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L113" s="28"/>
       <c r="M113" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="34"/>
-      <c r="P113" s="28" t="s">
-        <v>324</v>
+      <c r="P113" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="Q113" s="28"/>
       <c r="R113" s="28"/>
     </row>
     <row r="114" spans="1:18" ht="17.25" customHeight="1">
       <c r="A114" s="29">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C114" s="28"/>
+        <v>701</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>322</v>
+      </c>
       <c r="D114" s="31" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="E114" s="24" t="str">
         <f>_xlfn.XLOOKUP(D114, Composer!A:A, Composer!B:B, "-")</f>
-        <v>표트르 일리치 차이콥스키</v>
+        <v>에드바르 하게루프 그리그</v>
       </c>
       <c r="F114" s="28"/>
       <c r="G114" s="24" t="str">
@@ -36092,38 +36075,38 @@
         <v>Romantic</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="J114" s="28"/>
       <c r="K114" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L114" s="28"/>
       <c r="M114" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N114" s="28"/>
       <c r="O114" s="34"/>
       <c r="P114" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q114" s="28"/>
       <c r="R114" s="28"/>
     </row>
     <row r="115" spans="1:18" ht="17.25" customHeight="1">
       <c r="A115" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C115" s="28"/>
       <c r="D115" s="31" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="E115" s="24" t="str">
         <f>_xlfn.XLOOKUP(D115, Composer!A:A, Composer!B:B, "-")</f>
-        <v>조르주 비제</v>
+        <v>표트르 일리치 차이콥스키</v>
       </c>
       <c r="F115" s="28"/>
       <c r="G115" s="24" t="str">
@@ -36135,11 +36118,11 @@
         <v>Romantic</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>52</v>
+        <v>602</v>
       </c>
       <c r="J115" s="28"/>
       <c r="K115" s="28" t="s">
-        <v>329</v>
+        <v>703</v>
       </c>
       <c r="L115" s="28"/>
       <c r="M115" s="35">
@@ -36147,42 +36130,42 @@
       </c>
       <c r="N115" s="28"/>
       <c r="O115" s="34"/>
-      <c r="P115" s="28"/>
+      <c r="P115" s="28" t="s">
+        <v>326</v>
+      </c>
       <c r="Q115" s="28"/>
       <c r="R115" s="28"/>
     </row>
     <row r="116" spans="1:18" ht="17.25" customHeight="1">
       <c r="A116" s="29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>704</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>330</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C116" s="28"/>
       <c r="D116" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E116" s="24" t="str">
         <f>_xlfn.XLOOKUP(D116, Composer!A:A, Composer!B:B, "-")</f>
-        <v>클로드 드뷔시</v>
+        <v>조르주 비제</v>
       </c>
       <c r="F116" s="28"/>
       <c r="G116" s="24" t="str">
         <f>_xlfn.XLOOKUP(D116, Composer!A:A, Composer!C:C, "-")</f>
-        <v>인상주의</v>
+        <v>낭만</v>
       </c>
       <c r="H116" s="24" t="str">
         <f>_xlfn.XLOOKUP(E116, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Impressionism</v>
+        <v>Romantic</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>588</v>
+        <v>52</v>
       </c>
       <c r="J116" s="28"/>
       <c r="K116" s="28" t="s">
-        <v>705</v>
+        <v>329</v>
       </c>
       <c r="L116" s="28"/>
       <c r="M116" s="35">
@@ -36190,21 +36173,19 @@
       </c>
       <c r="N116" s="28"/>
       <c r="O116" s="34"/>
-      <c r="P116" s="28" t="s">
-        <v>332</v>
-      </c>
+      <c r="P116" s="28"/>
       <c r="Q116" s="28"/>
       <c r="R116" s="28"/>
     </row>
     <row r="117" spans="1:18" ht="17.25" customHeight="1">
       <c r="A117" s="29">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>331</v>
@@ -36227,7 +36208,7 @@
       </c>
       <c r="J117" s="28"/>
       <c r="K117" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L117" s="28"/>
       <c r="M117" s="35">
@@ -36236,20 +36217,20 @@
       <c r="N117" s="28"/>
       <c r="O117" s="34"/>
       <c r="P117" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q117" s="28"/>
       <c r="R117" s="28"/>
     </row>
     <row r="118" spans="1:18" ht="17.25" customHeight="1">
       <c r="A118" s="29">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>331</v>
@@ -36272,7 +36253,7 @@
       </c>
       <c r="J118" s="28"/>
       <c r="K118" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L118" s="28"/>
       <c r="M118" s="35">
@@ -36281,20 +36262,20 @@
       <c r="N118" s="28"/>
       <c r="O118" s="34"/>
       <c r="P118" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q118" s="28"/>
       <c r="R118" s="28"/>
     </row>
     <row r="119" spans="1:18" ht="17.25" customHeight="1">
       <c r="A119" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>331</v>
@@ -36317,7 +36298,7 @@
       </c>
       <c r="J119" s="28"/>
       <c r="K119" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L119" s="28"/>
       <c r="M119" s="35">
@@ -36326,43 +36307,43 @@
       <c r="N119" s="28"/>
       <c r="O119" s="34"/>
       <c r="P119" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q119" s="28"/>
       <c r="R119" s="28"/>
     </row>
     <row r="120" spans="1:18" ht="17.25" customHeight="1">
       <c r="A120" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E120" s="24" t="str">
         <f>_xlfn.XLOOKUP(D120, Composer!A:A, Composer!B:B, "-")</f>
-        <v>카롤 마치에이 시마노프스키</v>
+        <v>클로드 드뷔시</v>
       </c>
       <c r="F120" s="28"/>
       <c r="G120" s="24" t="str">
         <f>_xlfn.XLOOKUP(D120, Composer!A:A, Composer!C:C, "-")</f>
-        <v>근대</v>
+        <v>인상주의</v>
       </c>
       <c r="H120" s="24" t="str">
         <f>_xlfn.XLOOKUP(E120, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Modern</v>
+        <v>Impressionism</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="J120" s="28"/>
       <c r="K120" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L120" s="28"/>
       <c r="M120" s="35">
@@ -36370,60 +36351,60 @@
       </c>
       <c r="N120" s="28"/>
       <c r="O120" s="34"/>
-      <c r="P120" s="28"/>
-      <c r="Q120" s="37" t="s">
-        <v>341</v>
-      </c>
+      <c r="P120" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q120" s="28"/>
       <c r="R120" s="28"/>
     </row>
     <row r="121" spans="1:18" ht="17.25" customHeight="1">
       <c r="A121" s="29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C121" s="28"/>
+        <v>712</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>339</v>
+      </c>
       <c r="D121" s="31" t="s">
-        <v>465</v>
+        <v>340</v>
       </c>
       <c r="E121" s="24" t="str">
         <f>_xlfn.XLOOKUP(D121, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (낭만)</v>
+        <v>카롤 마치에이 시마노프스키</v>
       </c>
       <c r="F121" s="28"/>
       <c r="G121" s="24" t="str">
         <f>_xlfn.XLOOKUP(D121, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H121" s="24" t="str">
         <f>_xlfn.XLOOKUP(E121, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="J121" s="28"/>
       <c r="K121" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="L121" s="28" t="s">
-        <v>714</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="L121" s="28"/>
       <c r="M121" s="35">
         <v>3</v>
       </c>
       <c r="N121" s="28"/>
       <c r="O121" s="34"/>
-      <c r="P121" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q121" s="28"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="37" t="s">
+        <v>341</v>
+      </c>
       <c r="R121" s="28"/>
     </row>
     <row r="122" spans="1:18" ht="17.25" customHeight="1">
       <c r="A122" s="29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>342</v>
@@ -36461,27 +36442,25 @@
       <c r="N122" s="28"/>
       <c r="O122" s="34"/>
       <c r="P122" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q122" s="28"/>
       <c r="R122" s="28"/>
     </row>
     <row r="123" spans="1:18" ht="17.25" customHeight="1">
       <c r="A123" s="29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>348</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C123" s="28"/>
       <c r="D123" s="31" t="s">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="E123" s="24" t="str">
         <f>_xlfn.XLOOKUP(D123, Composer!A:A, Composer!B:B, "-")</f>
-        <v>버르토크 벨러</v>
+        <v>여러 작곡가 (낭만)</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="24" t="str">
@@ -36493,33 +36472,35 @@
         <v>Romantic</v>
       </c>
       <c r="I123" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J123" s="28"/>
       <c r="K123" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="L123" s="28"/>
+        <v>345</v>
+      </c>
+      <c r="L123" s="28" t="s">
+        <v>714</v>
+      </c>
       <c r="M123" s="35">
         <v>3</v>
       </c>
-      <c r="N123" s="28" t="s">
-        <v>638</v>
-      </c>
+      <c r="N123" s="28"/>
       <c r="O123" s="34"/>
-      <c r="P123" s="28"/>
+      <c r="P123" s="28" t="s">
+        <v>347</v>
+      </c>
       <c r="Q123" s="28"/>
       <c r="R123" s="28"/>
     </row>
     <row r="124" spans="1:18" ht="17.25" customHeight="1">
       <c r="A124" s="29">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D124" s="31" t="s">
         <v>349</v>
@@ -36542,7 +36523,7 @@
       </c>
       <c r="J124" s="28"/>
       <c r="K124" s="28" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L124" s="28"/>
       <c r="M124" s="35">
@@ -36558,13 +36539,13 @@
     </row>
     <row r="125" spans="1:18" ht="17.25" customHeight="1">
       <c r="A125" s="29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D125" s="31" t="s">
         <v>349</v>
@@ -36587,7 +36568,7 @@
       </c>
       <c r="J125" s="28"/>
       <c r="K125" s="28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L125" s="28"/>
       <c r="M125" s="35">
@@ -36603,13 +36584,13 @@
     </row>
     <row r="126" spans="1:18" ht="17.25" customHeight="1">
       <c r="A126" s="29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>349</v>
@@ -36632,7 +36613,7 @@
       </c>
       <c r="J126" s="28"/>
       <c r="K126" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L126" s="28"/>
       <c r="M126" s="35">
@@ -36648,13 +36629,13 @@
     </row>
     <row r="127" spans="1:18" ht="17.25" customHeight="1">
       <c r="A127" s="29">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>349</v>
@@ -36677,7 +36658,7 @@
       </c>
       <c r="J127" s="28"/>
       <c r="K127" s="28" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L127" s="28"/>
       <c r="M127" s="35">
@@ -36693,77 +36674,79 @@
     </row>
     <row r="128" spans="1:18" ht="17.25" customHeight="1">
       <c r="A128" s="29">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="C128" s="28"/>
+        <v>723</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>353</v>
+      </c>
       <c r="D128" s="31" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E128" s="24" t="str">
         <f>_xlfn.XLOOKUP(D128, Composer!A:A, Composer!B:B, "-")</f>
-        <v>다리우스 미요</v>
+        <v>버르토크 벨러</v>
       </c>
       <c r="F128" s="28"/>
       <c r="G128" s="24" t="str">
         <f>_xlfn.XLOOKUP(D128, Composer!A:A, Composer!C:C, "-")</f>
-        <v>근대</v>
+        <v>낭만</v>
       </c>
       <c r="H128" s="24" t="str">
         <f>_xlfn.XLOOKUP(E128, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Modern</v>
+        <v>Romantic</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>356</v>
+        <v>591</v>
       </c>
       <c r="J128" s="28"/>
       <c r="K128" s="28" t="s">
-        <v>354</v>
+        <v>724</v>
       </c>
       <c r="L128" s="28"/>
       <c r="M128" s="35">
         <v>3</v>
       </c>
-      <c r="N128" s="28"/>
+      <c r="N128" s="28" t="s">
+        <v>638</v>
+      </c>
       <c r="O128" s="34"/>
-      <c r="P128" s="28" t="s">
-        <v>357</v>
-      </c>
+      <c r="P128" s="28"/>
       <c r="Q128" s="28"/>
       <c r="R128" s="28"/>
     </row>
     <row r="129" spans="1:18" ht="17.25" customHeight="1">
       <c r="A129" s="29">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C129" s="28"/>
       <c r="D129" s="31" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E129" s="24" t="str">
         <f>_xlfn.XLOOKUP(D129, Composer!A:A, Composer!B:B, "-")</f>
-        <v>알렉산드르 니콜라예비치 스크랴빈</v>
+        <v>다리우스 미요</v>
       </c>
       <c r="F129" s="28"/>
       <c r="G129" s="24" t="str">
         <f>_xlfn.XLOOKUP(D129, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H129" s="24" t="str">
         <f>_xlfn.XLOOKUP(E129, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>360</v>
+        <v>Modern</v>
+      </c>
+      <c r="I129" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="J129" s="28"/>
       <c r="K129" s="28" t="s">
-        <v>725</v>
+        <v>354</v>
       </c>
       <c r="L129" s="28"/>
       <c r="M129" s="35">
@@ -36772,17 +36755,17 @@
       <c r="N129" s="28"/>
       <c r="O129" s="34"/>
       <c r="P129" s="28" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q129" s="28"/>
       <c r="R129" s="28"/>
     </row>
     <row r="130" spans="1:18" ht="17.25" customHeight="1">
       <c r="A130" s="29">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C130" s="28"/>
       <c r="D130" s="31" t="s">
@@ -36801,12 +36784,12 @@
         <f>_xlfn.XLOOKUP(E130, Composer!B:B, Composer!D:D, "-")</f>
         <v>Romantic</v>
       </c>
-      <c r="I130" s="28" t="s">
-        <v>584</v>
+      <c r="I130" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="J130" s="28"/>
       <c r="K130" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L130" s="28"/>
       <c r="M130" s="35">
@@ -36814,16 +36797,18 @@
       </c>
       <c r="N130" s="28"/>
       <c r="O130" s="34"/>
-      <c r="P130" s="28"/>
+      <c r="P130" s="28" t="s">
+        <v>361</v>
+      </c>
       <c r="Q130" s="28"/>
       <c r="R130" s="28"/>
     </row>
     <row r="131" spans="1:18" ht="17.25" customHeight="1">
       <c r="A131" s="29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C131" s="28"/>
       <c r="D131" s="31" t="s">
@@ -36847,7 +36832,7 @@
       </c>
       <c r="J131" s="28"/>
       <c r="K131" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L131" s="28"/>
       <c r="M131" s="35">
@@ -36861,18 +36846,18 @@
     </row>
     <row r="132" spans="1:18" ht="17.25" customHeight="1">
       <c r="A132" s="29">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C132" s="28"/>
       <c r="D132" s="31" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E132" s="24" t="str">
         <f>_xlfn.XLOOKUP(D132, Composer!A:A, Composer!B:B, "-")</f>
-        <v>세르게이 바실리예비치 라흐마니노프</v>
+        <v>알렉산드르 니콜라예비치 스크랴빈</v>
       </c>
       <c r="F132" s="28"/>
       <c r="G132" s="24" t="str">
@@ -36884,11 +36869,11 @@
         <v>Romantic</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>366</v>
+        <v>584</v>
       </c>
       <c r="J132" s="28"/>
       <c r="K132" s="28" t="s">
-        <v>367</v>
+        <v>727</v>
       </c>
       <c r="L132" s="28"/>
       <c r="M132" s="35">
@@ -36896,18 +36881,16 @@
       </c>
       <c r="N132" s="28"/>
       <c r="O132" s="34"/>
-      <c r="P132" s="28" t="s">
-        <v>368</v>
-      </c>
+      <c r="P132" s="28"/>
       <c r="Q132" s="28"/>
       <c r="R132" s="28"/>
     </row>
     <row r="133" spans="1:18" ht="17.25" customHeight="1">
       <c r="A133" s="29">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C133" s="28"/>
       <c r="D133" s="31" t="s">
@@ -36931,24 +36914,26 @@
       </c>
       <c r="J133" s="28"/>
       <c r="K133" s="28" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L133" s="28"/>
       <c r="M133" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N133" s="28"/>
       <c r="O133" s="34"/>
-      <c r="P133" s="28"/>
+      <c r="P133" s="28" t="s">
+        <v>368</v>
+      </c>
       <c r="Q133" s="28"/>
       <c r="R133" s="28"/>
     </row>
     <row r="134" spans="1:18" ht="17.25" customHeight="1">
       <c r="A134" s="29">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C134" s="28"/>
       <c r="D134" s="31" t="s">
@@ -36972,7 +36957,7 @@
       </c>
       <c r="J134" s="28"/>
       <c r="K134" s="28" t="s">
-        <v>728</v>
+        <v>370</v>
       </c>
       <c r="L134" s="28"/>
       <c r="M134" s="35">
@@ -36980,22 +36965,18 @@
       </c>
       <c r="N134" s="28"/>
       <c r="O134" s="34"/>
-      <c r="P134" s="28" t="s">
-        <v>372</v>
-      </c>
+      <c r="P134" s="28"/>
       <c r="Q134" s="28"/>
       <c r="R134" s="28"/>
     </row>
     <row r="135" spans="1:18" ht="17.25" customHeight="1">
       <c r="A135" s="29">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>373</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C135" s="28"/>
       <c r="D135" s="31" t="s">
         <v>365</v>
       </c>
@@ -37013,11 +36994,11 @@
         <v>Romantic</v>
       </c>
       <c r="I135" s="28" t="s">
-        <v>588</v>
+        <v>366</v>
       </c>
       <c r="J135" s="28"/>
       <c r="K135" s="28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L135" s="28"/>
       <c r="M135" s="35">
@@ -37026,20 +37007,20 @@
       <c r="N135" s="28"/>
       <c r="O135" s="34"/>
       <c r="P135" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q135" s="28"/>
       <c r="R135" s="28"/>
     </row>
     <row r="136" spans="1:18" ht="17.25" customHeight="1">
       <c r="A136" s="29">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>365</v>
@@ -37062,7 +37043,7 @@
       </c>
       <c r="J136" s="28"/>
       <c r="K136" s="28" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L136" s="28"/>
       <c r="M136" s="35">
@@ -37071,20 +37052,20 @@
       <c r="N136" s="28"/>
       <c r="O136" s="34"/>
       <c r="P136" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q136" s="28"/>
       <c r="R136" s="28"/>
     </row>
     <row r="137" spans="1:18" ht="17.25" customHeight="1">
       <c r="A137" s="29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>365</v>
@@ -37103,40 +37084,40 @@
         <v>Romantic</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>360</v>
+        <v>588</v>
       </c>
       <c r="J137" s="28"/>
       <c r="K137" s="28" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L137" s="28"/>
       <c r="M137" s="35">
-        <v>3</v>
-      </c>
-      <c r="N137" s="28" t="s">
-        <v>735</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N137" s="28"/>
       <c r="O137" s="34"/>
       <c r="P137" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q137" s="28"/>
       <c r="R137" s="28"/>
     </row>
     <row r="138" spans="1:18" ht="17.25" customHeight="1">
       <c r="A138" s="29">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C138" s="28"/>
+        <v>733</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>377</v>
+      </c>
       <c r="D138" s="31" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E138" s="24" t="str">
         <f>_xlfn.XLOOKUP(D138, Composer!A:A, Composer!B:B, "-")</f>
-        <v>버르토크 벨러</v>
+        <v>세르게이 바실리예비치 라흐마니노프</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="24" t="str">
@@ -37148,38 +37129,40 @@
         <v>Romantic</v>
       </c>
       <c r="I138" s="28" t="s">
-        <v>589</v>
+        <v>360</v>
       </c>
       <c r="J138" s="28"/>
       <c r="K138" s="28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L138" s="28"/>
       <c r="M138" s="35">
         <v>3</v>
       </c>
-      <c r="N138" s="28"/>
+      <c r="N138" s="28" t="s">
+        <v>735</v>
+      </c>
       <c r="O138" s="34"/>
       <c r="P138" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q138" s="28"/>
       <c r="R138" s="28"/>
     </row>
     <row r="139" spans="1:18" ht="17.25" customHeight="1">
       <c r="A139" s="29">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C139" s="28"/>
       <c r="D139" s="31" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="E139" s="24" t="str">
         <f>_xlfn.XLOOKUP(D139, Composer!A:A, Composer!B:B, "-")</f>
-        <v>니콜라이 카를로비치 메트네르</v>
+        <v>버르토크 벨러</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="24" t="str">
@@ -37191,11 +37174,11 @@
         <v>Romantic</v>
       </c>
       <c r="I139" s="28" t="s">
-        <v>383</v>
+        <v>589</v>
       </c>
       <c r="J139" s="28"/>
       <c r="K139" s="28" t="s">
-        <v>384</v>
+        <v>736</v>
       </c>
       <c r="L139" s="28"/>
       <c r="M139" s="35">
@@ -37204,17 +37187,17 @@
       <c r="N139" s="28"/>
       <c r="O139" s="34"/>
       <c r="P139" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q139" s="28"/>
       <c r="R139" s="28"/>
     </row>
     <row r="140" spans="1:18" ht="17.25" customHeight="1">
       <c r="A140" s="29">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C140" s="28"/>
       <c r="D140" s="31" t="s">
@@ -37238,7 +37221,7 @@
       </c>
       <c r="J140" s="28"/>
       <c r="K140" s="28" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L140" s="28"/>
       <c r="M140" s="35">
@@ -37247,109 +37230,111 @@
       <c r="N140" s="28"/>
       <c r="O140" s="34"/>
       <c r="P140" s="28" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q140" s="28"/>
       <c r="R140" s="28"/>
     </row>
     <row r="141" spans="1:18" ht="17.25" customHeight="1">
       <c r="A141" s="29">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C141" s="28"/>
       <c r="D141" s="31" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="E141" s="24" t="str">
         <f>_xlfn.XLOOKUP(D141, Composer!A:A, Composer!B:B, "-")</f>
-        <v>모리스 라벨</v>
+        <v>니콜라이 카를로비치 메트네르</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="24" t="str">
         <f>_xlfn.XLOOKUP(D141, Composer!A:A, Composer!C:C, "-")</f>
-        <v>인상주의</v>
+        <v>낭만</v>
       </c>
       <c r="H141" s="24" t="str">
         <f>_xlfn.XLOOKUP(E141, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Impressionism</v>
+        <v>Romantic</v>
       </c>
       <c r="I141" s="28" t="s">
-        <v>602</v>
+        <v>383</v>
       </c>
       <c r="J141" s="28"/>
       <c r="K141" s="28" t="s">
-        <v>737</v>
+        <v>387</v>
       </c>
       <c r="L141" s="28"/>
       <c r="M141" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N141" s="28"/>
       <c r="O141" s="34"/>
       <c r="P141" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q141" s="28"/>
       <c r="R141" s="28"/>
     </row>
     <row r="142" spans="1:18" ht="17.25" customHeight="1">
       <c r="A142" s="29">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C142" s="28"/>
       <c r="D142" s="31" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E142" s="24" t="str">
         <f>_xlfn.XLOOKUP(D142, Composer!A:A, Composer!B:B, "-")</f>
-        <v>세르게이 바실리예비치 라흐마니노프</v>
+        <v>모리스 라벨</v>
       </c>
       <c r="F142" s="28"/>
       <c r="G142" s="24" t="str">
         <f>_xlfn.XLOOKUP(D142, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>인상주의</v>
       </c>
       <c r="H142" s="24" t="str">
         <f>_xlfn.XLOOKUP(E142, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Impressionism</v>
       </c>
       <c r="I142" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J142" s="28"/>
       <c r="K142" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L142" s="28"/>
       <c r="M142" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N142" s="28"/>
       <c r="O142" s="34"/>
-      <c r="P142" s="28"/>
+      <c r="P142" s="28" t="s">
+        <v>390</v>
+      </c>
       <c r="Q142" s="28"/>
       <c r="R142" s="28"/>
     </row>
     <row r="143" spans="1:18" ht="17.25" customHeight="1">
       <c r="A143" s="29">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" s="28"/>
       <c r="D143" s="31" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="E143" s="24" t="str">
         <f>_xlfn.XLOOKUP(D143, Composer!A:A, Composer!B:B, "-")</f>
-        <v>장 시벨리우스</v>
+        <v>세르게이 바실리예비치 라흐마니노프</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="24" t="str">
@@ -37365,7 +37350,7 @@
       </c>
       <c r="J143" s="28"/>
       <c r="K143" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L143" s="28"/>
       <c r="M143" s="35">
@@ -37373,42 +37358,40 @@
       </c>
       <c r="N143" s="28"/>
       <c r="O143" s="34"/>
-      <c r="P143" s="28" t="s">
-        <v>393</v>
-      </c>
+      <c r="P143" s="28"/>
       <c r="Q143" s="28"/>
       <c r="R143" s="28"/>
     </row>
     <row r="144" spans="1:18" ht="17.25" customHeight="1">
       <c r="A144" s="29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C144" s="28"/>
       <c r="D144" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E144" s="24" t="str">
         <f>_xlfn.XLOOKUP(D144, Composer!A:A, Composer!B:B, "-")</f>
-        <v>조지 거슈윈</v>
+        <v>장 시벨리우스</v>
       </c>
       <c r="F144" s="28"/>
       <c r="G144" s="24" t="str">
         <f>_xlfn.XLOOKUP(D144, Composer!A:A, Composer!C:C, "-")</f>
-        <v>현대</v>
+        <v>낭만</v>
       </c>
       <c r="H144" s="24" t="str">
         <f>_xlfn.XLOOKUP(E144, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Contemporary</v>
+        <v>Romantic</v>
       </c>
       <c r="I144" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J144" s="28"/>
       <c r="K144" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L144" s="28"/>
       <c r="M144" s="35">
@@ -37417,17 +37400,17 @@
       <c r="N144" s="28"/>
       <c r="O144" s="34"/>
       <c r="P144" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q144" s="28"/>
       <c r="R144" s="28"/>
     </row>
     <row r="145" spans="1:26" ht="17.25" customHeight="1">
       <c r="A145" s="29">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C145" s="28"/>
       <c r="D145" s="31" t="s">
@@ -37451,60 +37434,58 @@
       </c>
       <c r="J145" s="28"/>
       <c r="K145" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L145" s="28"/>
       <c r="M145" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N145" s="28"/>
       <c r="O145" s="34"/>
-      <c r="P145" s="28"/>
+      <c r="P145" s="28" t="s">
+        <v>396</v>
+      </c>
       <c r="Q145" s="28"/>
       <c r="R145" s="28"/>
     </row>
     <row r="146" spans="1:26" ht="17.25" customHeight="1">
       <c r="A146" s="29">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>398</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C146" s="28"/>
       <c r="D146" s="31" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E146" s="24" t="str">
         <f>_xlfn.XLOOKUP(D146, Composer!A:A, Composer!B:B, "-")</f>
-        <v>세르게이 세르게예비치 프로코피예프</v>
+        <v>조지 거슈윈</v>
       </c>
       <c r="F146" s="28"/>
       <c r="G146" s="24" t="str">
         <f>_xlfn.XLOOKUP(D146, Composer!A:A, Composer!C:C, "-")</f>
-        <v>근대</v>
+        <v>현대</v>
       </c>
       <c r="H146" s="24" t="str">
         <f>_xlfn.XLOOKUP(E146, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Modern</v>
+        <v>Contemporary</v>
       </c>
       <c r="I146" s="28" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="J146" s="28"/>
       <c r="K146" s="28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L146" s="28"/>
       <c r="M146" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N146" s="28"/>
       <c r="O146" s="34"/>
-      <c r="P146" s="28" t="s">
-        <v>400</v>
-      </c>
+      <c r="P146" s="28"/>
       <c r="Q146" s="28"/>
       <c r="R146" s="28"/>
       <c r="Z146" s="4" t="s">
@@ -37513,122 +37494,124 @@
     </row>
     <row r="147" spans="1:26" ht="17.25" customHeight="1">
       <c r="A147" s="29">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="C147" s="28"/>
+        <v>742</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>398</v>
+      </c>
       <c r="D147" s="31" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E147" s="24" t="str">
         <f>_xlfn.XLOOKUP(D147, Composer!A:A, Composer!B:B, "-")</f>
-        <v>니콜라이 카를로비치 메트네르</v>
+        <v>세르게이 세르게예비치 프로코피예프</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="24" t="str">
         <f>_xlfn.XLOOKUP(D147, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H147" s="24" t="str">
         <f>_xlfn.XLOOKUP(E147, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="J147" s="28"/>
       <c r="K147" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L147" s="28"/>
       <c r="M147" s="35">
         <v>3</v>
       </c>
-      <c r="N147" s="28" t="s">
-        <v>684</v>
-      </c>
+      <c r="N147" s="28"/>
       <c r="O147" s="34"/>
       <c r="P147" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q147" s="28"/>
       <c r="R147" s="28"/>
     </row>
     <row r="148" spans="1:26" ht="17.25" customHeight="1">
       <c r="A148" s="29">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C148" s="28"/>
       <c r="D148" s="31" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E148" s="24" t="str">
         <f>_xlfn.XLOOKUP(D148, Composer!A:A, Composer!B:B, "-")</f>
-        <v>세르게이 세르게예비치 프로코피예프</v>
+        <v>니콜라이 카를로비치 메트네르</v>
       </c>
       <c r="F148" s="28"/>
       <c r="G148" s="24" t="str">
         <f>_xlfn.XLOOKUP(D148, Composer!A:A, Composer!C:C, "-")</f>
-        <v>근대</v>
+        <v>낭만</v>
       </c>
       <c r="H148" s="24" t="str">
         <f>_xlfn.XLOOKUP(E148, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Modern</v>
+        <v>Romantic</v>
       </c>
       <c r="I148" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J148" s="28"/>
       <c r="K148" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L148" s="28"/>
       <c r="M148" s="35">
         <v>3</v>
       </c>
-      <c r="N148" s="28"/>
+      <c r="N148" s="28" t="s">
+        <v>684</v>
+      </c>
       <c r="O148" s="34"/>
       <c r="P148" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q148" s="28"/>
       <c r="R148" s="28"/>
     </row>
     <row r="149" spans="1:26" ht="17.25" customHeight="1">
       <c r="A149" s="29">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C149" s="28"/>
       <c r="D149" s="31" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E149" s="24" t="str">
         <f>_xlfn.XLOOKUP(D149, Composer!A:A, Composer!B:B, "-")</f>
-        <v>비톨트 로만 루토스와프스키</v>
+        <v>세르게이 세르게예비치 프로코피예프</v>
       </c>
       <c r="F149" s="28"/>
       <c r="G149" s="24" t="str">
         <f>_xlfn.XLOOKUP(D149, Composer!A:A, Composer!C:C, "-")</f>
-        <v>현대</v>
+        <v>근대</v>
       </c>
       <c r="H149" s="24" t="str">
         <f>_xlfn.XLOOKUP(E149, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Contemporary</v>
+        <v>Modern</v>
       </c>
       <c r="I149" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J149" s="28"/>
       <c r="K149" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L149" s="28"/>
       <c r="M149" s="35">
@@ -37637,25 +37620,25 @@
       <c r="N149" s="28"/>
       <c r="O149" s="34"/>
       <c r="P149" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q149" s="28"/>
       <c r="R149" s="28"/>
     </row>
     <row r="150" spans="1:26" ht="17.25" customHeight="1">
       <c r="A150" s="29">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C150" s="28"/>
       <c r="D150" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E150" s="24" t="str">
         <f>_xlfn.XLOOKUP(D150, Composer!A:A, Composer!B:B, "-")</f>
-        <v>윌리엄 엘든 볼컴</v>
+        <v>비톨트 로만 루토스와프스키</v>
       </c>
       <c r="F150" s="28"/>
       <c r="G150" s="24" t="str">
@@ -37671,7 +37654,7 @@
       </c>
       <c r="J150" s="28"/>
       <c r="K150" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L150" s="28"/>
       <c r="M150" s="35">
@@ -37680,113 +37663,113 @@
       <c r="N150" s="28"/>
       <c r="O150" s="34"/>
       <c r="P150" s="28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q150" s="28"/>
       <c r="R150" s="28"/>
     </row>
     <row r="151" spans="1:26" ht="17.25" customHeight="1">
       <c r="A151" s="29">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C151" s="28"/>
       <c r="D151" s="31" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="E151" s="24" t="str">
         <f>_xlfn.XLOOKUP(D151, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프란츠 페터 슈베르트</v>
+        <v>윌리엄 엘든 볼컴</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="24" t="str">
         <f>_xlfn.XLOOKUP(D151, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>현대</v>
       </c>
       <c r="H151" s="24" t="str">
         <f>_xlfn.XLOOKUP(E151, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Contemporary</v>
       </c>
       <c r="I151" s="28" t="s">
         <v>602</v>
       </c>
       <c r="J151" s="28"/>
       <c r="K151" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L151" s="28"/>
       <c r="M151" s="35">
         <v>3</v>
       </c>
-      <c r="N151" s="28" t="s">
-        <v>646</v>
-      </c>
+      <c r="N151" s="28"/>
       <c r="O151" s="34"/>
       <c r="P151" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q151" s="28"/>
       <c r="R151" s="28"/>
     </row>
     <row r="152" spans="1:26" ht="17.25" customHeight="1">
       <c r="A152" s="29">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C152" s="28"/>
       <c r="D152" s="31" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="E152" s="24" t="str">
         <f>_xlfn.XLOOKUP(D152, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프란시스 풀랑크</v>
+        <v>프란츠 페터 슈베르트</v>
       </c>
       <c r="F152" s="28"/>
       <c r="G152" s="24" t="str">
         <f>_xlfn.XLOOKUP(D152, Composer!A:A, Composer!C:C, "-")</f>
-        <v>근대</v>
+        <v>낭만</v>
       </c>
       <c r="H152" s="24" t="str">
         <f>_xlfn.XLOOKUP(E152, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Modern</v>
+        <v>Romantic</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>356</v>
+        <v>602</v>
       </c>
       <c r="J152" s="28"/>
       <c r="K152" s="28" t="s">
-        <v>416</v>
+        <v>748</v>
       </c>
       <c r="L152" s="28"/>
       <c r="M152" s="35">
         <v>3</v>
       </c>
-      <c r="N152" s="28"/>
+      <c r="N152" s="28" t="s">
+        <v>646</v>
+      </c>
       <c r="O152" s="34"/>
       <c r="P152" s="28" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q152" s="28"/>
       <c r="R152" s="28"/>
     </row>
     <row r="153" spans="1:26" ht="17.25" customHeight="1">
       <c r="A153" s="29">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C153" s="28"/>
       <c r="D153" s="31" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E153" s="24" t="str">
         <f>_xlfn.XLOOKUP(D153, Composer!A:A, Composer!B:B, "-")</f>
-        <v>세르게이 세르게예비치 프로코피예프</v>
+        <v>프란시스 풀랑크</v>
       </c>
       <c r="F153" s="28"/>
       <c r="G153" s="24" t="str">
@@ -37798,11 +37781,11 @@
         <v>Modern</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="J153" s="28"/>
       <c r="K153" s="28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L153" s="28"/>
       <c r="M153" s="35">
@@ -37811,17 +37794,17 @@
       <c r="N153" s="28"/>
       <c r="O153" s="34"/>
       <c r="P153" s="28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
     </row>
     <row r="154" spans="1:26" ht="17.25" customHeight="1">
       <c r="A154" s="29">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C154" s="28"/>
       <c r="D154" s="31" t="s">
@@ -37841,11 +37824,11 @@
         <v>Modern</v>
       </c>
       <c r="I154" s="28" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J154" s="28"/>
       <c r="K154" s="28" t="s">
-        <v>749</v>
+        <v>420</v>
       </c>
       <c r="L154" s="28"/>
       <c r="M154" s="35">
@@ -37854,21 +37837,19 @@
       <c r="N154" s="28"/>
       <c r="O154" s="34"/>
       <c r="P154" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q154" s="28"/>
       <c r="R154" s="28"/>
     </row>
     <row r="155" spans="1:26" ht="17.25" customHeight="1">
       <c r="A155" s="29">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>750</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>424</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C155" s="28"/>
       <c r="D155" s="31" t="s">
         <v>399</v>
       </c>
@@ -37886,11 +37867,11 @@
         <v>Modern</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>751</v>
+        <v>366</v>
       </c>
       <c r="J155" s="28"/>
       <c r="K155" s="28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="L155" s="28"/>
       <c r="M155" s="35">
@@ -37899,41 +37880,43 @@
       <c r="N155" s="28"/>
       <c r="O155" s="34"/>
       <c r="P155" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q155" s="28"/>
       <c r="R155" s="28"/>
     </row>
     <row r="156" spans="1:26" ht="17.25" customHeight="1">
       <c r="A156" s="29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="C156" s="28"/>
+        <v>750</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>424</v>
+      </c>
       <c r="D156" s="31" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="E156" s="24" t="str">
         <f>_xlfn.XLOOKUP(D156, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프레데릭 제프스키</v>
+        <v>세르게이 세르게예비치 프로코피예프</v>
       </c>
       <c r="F156" s="28"/>
       <c r="G156" s="24" t="str">
         <f>_xlfn.XLOOKUP(D156, Composer!A:A, Composer!C:C, "-")</f>
-        <v>현대</v>
+        <v>근대</v>
       </c>
       <c r="H156" s="24" t="str">
         <f>_xlfn.XLOOKUP(E156, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Contemporary</v>
+        <v>Modern</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>602</v>
+        <v>751</v>
       </c>
       <c r="J156" s="28"/>
       <c r="K156" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L156" s="28"/>
       <c r="M156" s="35">
@@ -37942,27 +37925,25 @@
       <c r="N156" s="28"/>
       <c r="O156" s="34"/>
       <c r="P156" s="28" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="Q156" s="28"/>
       <c r="R156" s="28"/>
     </row>
     <row r="157" spans="1:26" ht="17.25" customHeight="1">
       <c r="A157" s="29">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>754</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>428</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C157" s="28"/>
       <c r="D157" s="31" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E157" s="24" t="str">
         <f>_xlfn.XLOOKUP(D157, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (현대)</v>
+        <v>프레데릭 제프스키</v>
       </c>
       <c r="F157" s="28"/>
       <c r="G157" s="24" t="str">
@@ -37974,38 +37955,40 @@
         <v>Contemporary</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="J157" s="28"/>
       <c r="K157" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L157" s="28"/>
       <c r="M157" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N157" s="28"/>
       <c r="O157" s="34"/>
       <c r="P157" s="28" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="Q157" s="28"/>
       <c r="R157" s="28"/>
     </row>
     <row r="158" spans="1:26" ht="17.25" customHeight="1">
       <c r="A158" s="29">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>756</v>
-      </c>
-      <c r="C158" s="28"/>
+        <v>754</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>428</v>
+      </c>
       <c r="D158" s="31" t="s">
-        <v>757</v>
+        <v>466</v>
       </c>
       <c r="E158" s="24" t="str">
         <f>_xlfn.XLOOKUP(D158, Composer!A:A, Composer!B:B, "-")</f>
-        <v>황철익</v>
+        <v>여러 작곡가 (현대)</v>
       </c>
       <c r="F158" s="28"/>
       <c r="G158" s="24" t="str">
@@ -38017,40 +38000,38 @@
         <v>Contemporary</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L158" s="28"/>
       <c r="M158" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N158" s="28"/>
       <c r="O158" s="34"/>
       <c r="P158" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q158" s="28"/>
       <c r="R158" s="28"/>
     </row>
     <row r="159" spans="1:26" ht="17.25" customHeight="1">
       <c r="A159" s="29">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>431</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="C159" s="28"/>
       <c r="D159" s="31" t="s">
-        <v>466</v>
+        <v>757</v>
       </c>
       <c r="E159" s="24" t="str">
         <f>_xlfn.XLOOKUP(D159, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (현대)</v>
+        <v>황철익</v>
       </c>
       <c r="F159" s="28"/>
       <c r="G159" s="24" t="str">
@@ -38066,7 +38047,7 @@
       </c>
       <c r="J159" s="28"/>
       <c r="K159" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L159" s="28"/>
       <c r="M159" s="35">
@@ -38075,25 +38056,27 @@
       <c r="N159" s="28"/>
       <c r="O159" s="34"/>
       <c r="P159" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q159" s="28"/>
       <c r="R159" s="28"/>
     </row>
     <row r="160" spans="1:26" ht="17.25" customHeight="1">
       <c r="A160" s="29">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C160" s="28"/>
+        <v>759</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>431</v>
+      </c>
       <c r="D160" s="31" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="E160" s="24" t="str">
         <f>_xlfn.XLOOKUP(D160, Composer!A:A, Composer!B:B, "-")</f>
-        <v>니콜라이 기르셰비치 카푸스틴</v>
+        <v>여러 작곡가 (현대)</v>
       </c>
       <c r="F160" s="28"/>
       <c r="G160" s="24" t="str">
@@ -38105,32 +38088,30 @@
         <v>Contemporary</v>
       </c>
       <c r="I160" s="28" t="s">
-        <v>435</v>
+        <v>588</v>
       </c>
       <c r="J160" s="28"/>
       <c r="K160" s="28" t="s">
-        <v>436</v>
+        <v>760</v>
       </c>
       <c r="L160" s="28"/>
       <c r="M160" s="35">
         <v>3</v>
       </c>
-      <c r="N160" s="28" t="s">
-        <v>761</v>
-      </c>
+      <c r="N160" s="28"/>
       <c r="O160" s="34"/>
       <c r="P160" s="28" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q160" s="28"/>
       <c r="R160" s="28"/>
     </row>
     <row r="161" spans="1:18" ht="17.25" customHeight="1">
       <c r="A161" s="29">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="31" t="s">
@@ -38154,26 +38135,28 @@
       </c>
       <c r="J161" s="28"/>
       <c r="K161" s="28" t="s">
-        <v>762</v>
+        <v>436</v>
       </c>
       <c r="L161" s="28"/>
       <c r="M161" s="35">
         <v>3</v>
       </c>
-      <c r="N161" s="28"/>
+      <c r="N161" s="28" t="s">
+        <v>761</v>
+      </c>
       <c r="O161" s="34"/>
       <c r="P161" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q161" s="28"/>
       <c r="R161" s="28"/>
     </row>
     <row r="162" spans="1:18" ht="17.25" customHeight="1">
       <c r="A162" s="29">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="31" t="s">
@@ -38197,7 +38180,7 @@
       </c>
       <c r="J162" s="28"/>
       <c r="K162" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L162" s="28"/>
       <c r="M162" s="35">
@@ -38206,25 +38189,25 @@
       <c r="N162" s="28"/>
       <c r="O162" s="34"/>
       <c r="P162" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q162" s="28"/>
       <c r="R162" s="28"/>
     </row>
     <row r="163" spans="1:18" ht="17.25" customHeight="1">
       <c r="A163" s="29">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="31" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E163" s="24" t="str">
         <f>_xlfn.XLOOKUP(D163, Composer!A:A, Composer!B:B, "-")</f>
-        <v>마르크앙드레 아믈랭</v>
+        <v>니콜라이 기르셰비치 카푸스틴</v>
       </c>
       <c r="F163" s="28"/>
       <c r="G163" s="24" t="str">
@@ -38236,118 +38219,118 @@
         <v>Contemporary</v>
       </c>
       <c r="I163" s="28" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="J163" s="28"/>
       <c r="K163" s="28" t="s">
-        <v>445</v>
+        <v>763</v>
       </c>
       <c r="L163" s="28"/>
       <c r="M163" s="35">
         <v>3</v>
       </c>
-      <c r="N163" s="28" t="s">
-        <v>646</v>
-      </c>
+      <c r="N163" s="28"/>
       <c r="O163" s="34"/>
       <c r="P163" s="28" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q163" s="28"/>
       <c r="R163" s="28"/>
     </row>
     <row r="164" spans="1:18" ht="17.25" customHeight="1">
       <c r="A164" s="29">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="31" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E164" s="24" t="str">
         <f>_xlfn.XLOOKUP(D164, Composer!A:A, Composer!B:B, "-")</f>
-        <v>에릭 사티</v>
+        <v>마르크앙드레 아믈랭</v>
       </c>
       <c r="F164" s="28"/>
       <c r="G164" s="24" t="str">
         <f>_xlfn.XLOOKUP(D164, Composer!A:A, Composer!C:C, "-")</f>
-        <v>인상주의</v>
+        <v>현대</v>
       </c>
       <c r="H164" s="24" t="str">
         <f>_xlfn.XLOOKUP(E164, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Impressionism</v>
+        <v>Contemporary</v>
       </c>
       <c r="I164" s="28" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="J164" s="28"/>
       <c r="K164" s="28" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L164" s="28"/>
       <c r="M164" s="35">
-        <v>2</v>
-      </c>
-      <c r="N164" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="N164" s="28" t="s">
+        <v>646</v>
+      </c>
       <c r="O164" s="34"/>
       <c r="P164" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q164" s="28"/>
       <c r="R164" s="28"/>
     </row>
     <row r="165" spans="1:18" ht="17.25" customHeight="1">
       <c r="A165" s="29">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>764</v>
+        <v>447</v>
       </c>
       <c r="C165" s="28"/>
       <c r="D165" s="31" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="E165" s="24" t="str">
         <f>_xlfn.XLOOKUP(D165, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가</v>
+        <v>에릭 사티</v>
       </c>
       <c r="F165" s="28"/>
       <c r="G165" s="24" t="str">
         <f>_xlfn.XLOOKUP(D165, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
+        <v>인상주의</v>
       </c>
       <c r="H165" s="24" t="str">
         <f>_xlfn.XLOOKUP(E165, Composer!B:B, Composer!D:D, "-")</f>
-        <v>No category</v>
+        <v>Impressionism</v>
       </c>
       <c r="I165" s="28" t="s">
-        <v>765</v>
+        <v>356</v>
       </c>
       <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
+      <c r="K165" s="28" t="s">
+        <v>449</v>
+      </c>
       <c r="L165" s="28"/>
-      <c r="M165" s="39">
-        <v>3</v>
+      <c r="M165" s="35">
+        <v>2</v>
       </c>
       <c r="N165" s="28"/>
       <c r="O165" s="34"/>
       <c r="P165" s="28" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="Q165" s="28"/>
-      <c r="R165" s="28" t="s">
-        <v>476</v>
-      </c>
+      <c r="R165" s="28"/>
     </row>
     <row r="166" spans="1:18" ht="17.25" customHeight="1">
       <c r="A166" s="29">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C166" s="28"/>
       <c r="D166" s="31" t="s">
@@ -38367,12 +38350,10 @@
         <v>No category</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J166" s="28"/>
-      <c r="K166" s="28" t="s">
-        <v>768</v>
-      </c>
+      <c r="K166" s="28"/>
       <c r="L166" s="28"/>
       <c r="M166" s="39">
         <v>3</v>
@@ -38380,54 +38361,52 @@
       <c r="N166" s="28"/>
       <c r="O166" s="34"/>
       <c r="P166" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q166" s="28"/>
       <c r="R166" s="28" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="17.25" customHeight="1">
       <c r="A167" s="29">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>469</v>
+        <v>766</v>
       </c>
       <c r="C167" s="28"/>
       <c r="D167" s="31" t="s">
-        <v>67</v>
+        <v>343</v>
       </c>
       <c r="E167" s="24" t="str">
         <f>_xlfn.XLOOKUP(D167, Composer!A:A, Composer!B:B, "-")</f>
-        <v>볼프강 아마데우스 모차르트</v>
+        <v>여러 작곡가</v>
       </c>
       <c r="F167" s="28"/>
       <c r="G167" s="24" t="str">
         <f>_xlfn.XLOOKUP(D167, Composer!A:A, Composer!C:C, "-")</f>
-        <v>고전</v>
+        <v>분류 없음</v>
       </c>
       <c r="H167" s="24" t="str">
         <f>_xlfn.XLOOKUP(E167, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Classical</v>
+        <v>No category</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J167" s="28"/>
       <c r="K167" s="28" t="s">
-        <v>770</v>
-      </c>
-      <c r="L167" s="28" t="s">
-        <v>470</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="L167" s="28"/>
       <c r="M167" s="39">
         <v>3</v>
       </c>
       <c r="N167" s="28"/>
       <c r="O167" s="34"/>
       <c r="P167" s="28" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="Q167" s="28"/>
       <c r="R167" s="28" t="s">
@@ -38436,53 +38415,57 @@
     </row>
     <row r="168" spans="1:18" ht="17.25" customHeight="1">
       <c r="A168" s="29">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>771</v>
+        <v>469</v>
       </c>
       <c r="C168" s="28"/>
       <c r="D168" s="31" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="E168" s="24" t="str">
         <f>_xlfn.XLOOKUP(D168, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가</v>
+        <v>볼프강 아마데우스 모차르트</v>
       </c>
       <c r="F168" s="28"/>
       <c r="G168" s="24" t="str">
         <f>_xlfn.XLOOKUP(D168, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
+        <v>고전</v>
       </c>
       <c r="H168" s="24" t="str">
         <f>_xlfn.XLOOKUP(E168, Composer!B:B, Composer!D:D, "-")</f>
-        <v>No category</v>
+        <v>Classical</v>
       </c>
       <c r="I168" s="28" t="s">
         <v>769</v>
       </c>
       <c r="J168" s="28"/>
       <c r="K168" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="L168" s="28"/>
+        <v>770</v>
+      </c>
+      <c r="L168" s="28" t="s">
+        <v>470</v>
+      </c>
       <c r="M168" s="39">
         <v>3</v>
       </c>
       <c r="N168" s="28"/>
       <c r="O168" s="34"/>
       <c r="P168" s="28" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="Q168" s="28"/>
-      <c r="R168" s="28"/>
+      <c r="R168" s="28" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="169" spans="1:18" ht="17.25" customHeight="1">
       <c r="A169" s="29">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C169" s="28"/>
       <c r="D169" s="31" t="s">
@@ -38506,7 +38489,7 @@
       </c>
       <c r="J169" s="28"/>
       <c r="K169" s="28" t="s">
-        <v>772</v>
+        <v>472</v>
       </c>
       <c r="L169" s="28"/>
       <c r="M169" s="39">
@@ -38515,19 +38498,17 @@
       <c r="N169" s="28"/>
       <c r="O169" s="34"/>
       <c r="P169" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q169" s="28"/>
-      <c r="R169" s="28" t="s">
-        <v>476</v>
-      </c>
+      <c r="R169" s="28"/>
     </row>
     <row r="170" spans="1:18" ht="17.25" customHeight="1">
       <c r="A170" s="29">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C170" s="28"/>
       <c r="D170" s="31" t="s">
@@ -38551,7 +38532,7 @@
       </c>
       <c r="J170" s="28"/>
       <c r="K170" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L170" s="28"/>
       <c r="M170" s="39">
@@ -38560,7 +38541,7 @@
       <c r="N170" s="28"/>
       <c r="O170" s="34"/>
       <c r="P170" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q170" s="28"/>
       <c r="R170" s="28" t="s">
@@ -38569,10 +38550,10 @@
     </row>
     <row r="171" spans="1:18" ht="17.25" customHeight="1">
       <c r="A171" s="29">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="C171" s="28"/>
       <c r="D171" s="31" t="s">
@@ -38592,30 +38573,32 @@
         <v>No category</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>474</v>
+        <v>769</v>
       </c>
       <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
+      <c r="K171" s="28" t="s">
+        <v>773</v>
+      </c>
       <c r="L171" s="28"/>
       <c r="M171" s="39">
         <v>3</v>
       </c>
-      <c r="N171" s="28" t="s">
-        <v>774</v>
-      </c>
+      <c r="N171" s="28"/>
       <c r="O171" s="34"/>
       <c r="P171" s="28" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q171" s="28"/>
-      <c r="R171" s="28"/>
+      <c r="R171" s="28" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="172" spans="1:18" ht="17.25" customHeight="1">
       <c r="A172" s="29">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C172" s="28"/>
       <c r="D172" s="31" t="s">
@@ -38635,34 +38618,30 @@
         <v>No category</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>769</v>
+        <v>474</v>
       </c>
       <c r="J172" s="28"/>
-      <c r="K172" s="28" t="s">
-        <v>775</v>
-      </c>
+      <c r="K172" s="28"/>
       <c r="L172" s="28"/>
       <c r="M172" s="39">
         <v>3</v>
       </c>
       <c r="N172" s="28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="O172" s="34"/>
       <c r="P172" s="28" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q172" s="28"/>
-      <c r="R172" s="28" t="s">
-        <v>476</v>
-      </c>
+      <c r="R172" s="28"/>
     </row>
     <row r="173" spans="1:18" ht="17.25" customHeight="1">
       <c r="A173" s="29">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>777</v>
+        <v>475</v>
       </c>
       <c r="C173" s="28"/>
       <c r="D173" s="31" t="s">
@@ -38682,18 +38661,22 @@
         <v>No category</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
+      <c r="K173" s="28" t="s">
+        <v>775</v>
+      </c>
       <c r="L173" s="28"/>
       <c r="M173" s="39">
         <v>3</v>
       </c>
-      <c r="N173" s="28"/>
+      <c r="N173" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="O173" s="34"/>
       <c r="P173" s="28" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q173" s="28"/>
       <c r="R173" s="28" t="s">
@@ -38702,45 +38685,41 @@
     </row>
     <row r="174" spans="1:18" ht="17.25" customHeight="1">
       <c r="A174" s="29">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C174" s="28"/>
       <c r="D174" s="31" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="E174" s="24" t="str">
         <f>_xlfn.XLOOKUP(D174, Composer!A:A, Composer!B:B, "-")</f>
-        <v>카를 체르니</v>
+        <v>여러 작곡가</v>
       </c>
       <c r="F174" s="28"/>
       <c r="G174" s="24" t="str">
         <f>_xlfn.XLOOKUP(D174, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>분류 없음</v>
       </c>
       <c r="H174" s="24" t="str">
         <f>_xlfn.XLOOKUP(E174, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>No category</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="J174" s="28"/>
-      <c r="K174" s="28" t="s">
-        <v>477</v>
-      </c>
+      <c r="K174" s="28"/>
       <c r="L174" s="28"/>
       <c r="M174" s="39">
-        <v>2</v>
-      </c>
-      <c r="N174" s="28" t="s">
-        <v>780</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N174" s="28"/>
       <c r="O174" s="34"/>
       <c r="P174" s="28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q174" s="28"/>
       <c r="R174" s="28" t="s">
@@ -38749,10 +38728,10 @@
     </row>
     <row r="175" spans="1:18" ht="17.25" customHeight="1">
       <c r="A175" s="29">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C175" s="28"/>
       <c r="D175" s="31" t="s">
@@ -38772,20 +38751,22 @@
         <v>Romantic</v>
       </c>
       <c r="I175" s="28" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="J175" s="28"/>
       <c r="K175" s="28" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L175" s="28"/>
       <c r="M175" s="39">
-        <v>3</v>
-      </c>
-      <c r="N175" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="N175" s="28" t="s">
+        <v>780</v>
+      </c>
       <c r="O175" s="34"/>
       <c r="P175" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q175" s="28"/>
       <c r="R175" s="28" t="s">
@@ -38794,10 +38775,10 @@
     </row>
     <row r="176" spans="1:18" ht="17.25" customHeight="1">
       <c r="A176" s="29">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C176" s="28"/>
       <c r="D176" s="31" t="s">
@@ -38817,34 +38798,32 @@
         <v>Romantic</v>
       </c>
       <c r="I176" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J176" s="28"/>
       <c r="K176" s="28" t="s">
         <v>484</v>
       </c>
       <c r="L176" s="28"/>
-      <c r="M176" s="40">
-        <v>2</v>
-      </c>
-      <c r="N176" s="28" t="s">
-        <v>785</v>
-      </c>
+      <c r="M176" s="39">
+        <v>3</v>
+      </c>
+      <c r="N176" s="28"/>
       <c r="O176" s="34"/>
       <c r="P176" s="28" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Q176" s="28"/>
       <c r="R176" s="28" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="17.25" customHeight="1">
       <c r="A177" s="29">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C177" s="28"/>
       <c r="D177" s="31" t="s">
@@ -38864,56 +38843,58 @@
         <v>Romantic</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J177" s="28"/>
       <c r="K177" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L177" s="28"/>
-      <c r="M177" s="39">
-        <v>3</v>
-      </c>
-      <c r="N177" s="28"/>
+      <c r="M177" s="40">
+        <v>2</v>
+      </c>
+      <c r="N177" s="28" t="s">
+        <v>785</v>
+      </c>
       <c r="O177" s="34"/>
       <c r="P177" s="28" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="Q177" s="28"/>
       <c r="R177" s="28" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="17.25" customHeight="1">
       <c r="A178" s="29">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C178" s="28"/>
       <c r="D178" s="31" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="E178" s="24" t="str">
         <f>_xlfn.XLOOKUP(D178, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가</v>
+        <v>카를 체르니</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="24" t="str">
         <f>_xlfn.XLOOKUP(D178, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
+        <v>낭만</v>
       </c>
       <c r="H178" s="24" t="str">
         <f>_xlfn.XLOOKUP(E178, Composer!B:B, Composer!D:D, "-")</f>
-        <v>No category</v>
+        <v>Romantic</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>511</v>
+        <v>787</v>
       </c>
       <c r="J178" s="28"/>
       <c r="K178" s="28" t="s">
-        <v>789</v>
+        <v>485</v>
       </c>
       <c r="L178" s="28"/>
       <c r="M178" s="39">
@@ -38922,7 +38903,7 @@
       <c r="N178" s="28"/>
       <c r="O178" s="34"/>
       <c r="P178" s="28" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Q178" s="28"/>
       <c r="R178" s="28" t="s">
@@ -38931,34 +38912,34 @@
     </row>
     <row r="179" spans="1:18" ht="17.25" customHeight="1">
       <c r="A179" s="29">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C179" s="28"/>
       <c r="D179" s="31" t="s">
-        <v>482</v>
+        <v>343</v>
       </c>
       <c r="E179" s="24" t="str">
         <f>_xlfn.XLOOKUP(D179, Composer!A:A, Composer!B:B, "-")</f>
-        <v>샤를 루이 하농</v>
+        <v>여러 작곡가</v>
       </c>
       <c r="F179" s="28"/>
       <c r="G179" s="24" t="str">
         <f>_xlfn.XLOOKUP(D179, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>분류 없음</v>
       </c>
       <c r="H179" s="24" t="str">
         <f>_xlfn.XLOOKUP(E179, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>No category</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>787</v>
+        <v>511</v>
       </c>
       <c r="J179" s="28"/>
       <c r="K179" s="28" t="s">
-        <v>480</v>
+        <v>789</v>
       </c>
       <c r="L179" s="28"/>
       <c r="M179" s="39">
@@ -38967,7 +38948,7 @@
       <c r="N179" s="28"/>
       <c r="O179" s="34"/>
       <c r="P179" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q179" s="28"/>
       <c r="R179" s="28" t="s">
@@ -38976,18 +38957,18 @@
     </row>
     <row r="180" spans="1:18" ht="17.25" customHeight="1">
       <c r="A180" s="29">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C180" s="28"/>
       <c r="D180" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E180" s="24" t="str">
         <f>_xlfn.XLOOKUP(D180, Composer!A:A, Composer!B:B, "-")</f>
-        <v>프리드리히 부르크뮐러</v>
+        <v>샤를 루이 하농</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="24" t="str">
@@ -38999,11 +38980,11 @@
         <v>Romantic</v>
       </c>
       <c r="I180" s="28" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="J180" s="28"/>
       <c r="K180" s="28" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L180" s="28"/>
       <c r="M180" s="39">
@@ -39012,7 +38993,7 @@
       <c r="N180" s="28"/>
       <c r="O180" s="34"/>
       <c r="P180" s="28" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="Q180" s="28"/>
       <c r="R180" s="28" t="s">
@@ -39021,10 +39002,10 @@
     </row>
     <row r="181" spans="1:18" ht="17.25" customHeight="1">
       <c r="A181" s="29">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C181" s="28"/>
       <c r="D181" s="31" t="s">
@@ -39044,11 +39025,11 @@
         <v>Romantic</v>
       </c>
       <c r="I181" s="28" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="J181" s="28"/>
       <c r="K181" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L181" s="28"/>
       <c r="M181" s="39">
@@ -39057,7 +39038,7 @@
       <c r="N181" s="28"/>
       <c r="O181" s="34"/>
       <c r="P181" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q181" s="28"/>
       <c r="R181" s="28" t="s">
@@ -39066,36 +39047,34 @@
     </row>
     <row r="182" spans="1:18" ht="17.25" customHeight="1">
       <c r="A182" s="29">
-        <v>180</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C182" s="28" t="s">
-        <v>488</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B182" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="C182" s="28"/>
       <c r="D182" s="31" t="s">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="E182" s="24" t="str">
         <f>_xlfn.XLOOKUP(D182, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가</v>
+        <v>프리드리히 부르크뮐러</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="24" t="str">
         <f>_xlfn.XLOOKUP(D182, Composer!A:A, Composer!C:C, "-")</f>
-        <v>분류 없음</v>
+        <v>낭만</v>
       </c>
       <c r="H182" s="24" t="str">
         <f>_xlfn.XLOOKUP(E182, Composer!B:B, Composer!D:D, "-")</f>
-        <v>No category</v>
+        <v>Romantic</v>
       </c>
       <c r="I182" s="28" t="s">
-        <v>490</v>
+        <v>793</v>
       </c>
       <c r="J182" s="28"/>
       <c r="K182" s="28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L182" s="28"/>
       <c r="M182" s="39">
@@ -39104,43 +39083,45 @@
       <c r="N182" s="28"/>
       <c r="O182" s="34"/>
       <c r="P182" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q182" s="28"/>
-      <c r="R182" s="28"/>
+      <c r="R182" s="28" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="183" spans="1:18" ht="17.25" customHeight="1">
       <c r="A183" s="29">
-        <v>181</v>
-      </c>
-      <c r="B183" s="28" t="s">
-        <v>794</v>
+        <v>180</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>492</v>
+        <v>343</v>
       </c>
       <c r="E183" s="24" t="str">
         <f>_xlfn.XLOOKUP(D183, Composer!A:A, Composer!B:B, "-")</f>
-        <v>요셉 피쉬나</v>
+        <v>여러 작곡가</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="24" t="str">
         <f>_xlfn.XLOOKUP(D183, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>분류 없음</v>
       </c>
       <c r="H183" s="24" t="str">
         <f>_xlfn.XLOOKUP(E183, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>No category</v>
       </c>
       <c r="I183" s="28" t="s">
-        <v>795</v>
+        <v>490</v>
       </c>
       <c r="J183" s="28"/>
       <c r="K183" s="28" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L183" s="28"/>
       <c r="M183" s="39">
@@ -39149,22 +39130,20 @@
       <c r="N183" s="28"/>
       <c r="O183" s="34"/>
       <c r="P183" s="28" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="Q183" s="28"/>
-      <c r="R183" s="28" t="s">
-        <v>476</v>
-      </c>
+      <c r="R183" s="28"/>
     </row>
     <row r="184" spans="1:18" ht="17.25" customHeight="1">
       <c r="A184" s="29">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D184" s="31" t="s">
         <v>492</v>
@@ -39187,7 +39166,7 @@
       </c>
       <c r="J184" s="28"/>
       <c r="K184" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L184" s="28"/>
       <c r="M184" s="39">
@@ -39196,7 +39175,7 @@
       <c r="N184" s="28"/>
       <c r="O184" s="34"/>
       <c r="P184" s="28" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="Q184" s="28"/>
       <c r="R184" s="28" t="s">
@@ -39205,34 +39184,36 @@
     </row>
     <row r="185" spans="1:18" ht="17.25" customHeight="1">
       <c r="A185" s="29">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>797</v>
-      </c>
-      <c r="C185" s="28"/>
+        <v>796</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>496</v>
+      </c>
       <c r="D185" s="31" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E185" s="24" t="str">
         <f>_xlfn.XLOOKUP(D185, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (팝/뉴에이지)</v>
+        <v>요셉 피쉬나</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="24" t="str">
         <f>_xlfn.XLOOKUP(D185, Composer!A:A, Composer!C:C, "-")</f>
-        <v>팝/뉴에이지</v>
+        <v>낭만</v>
       </c>
       <c r="H185" s="24" t="str">
         <f>_xlfn.XLOOKUP(E185, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Pop/New Age</v>
+        <v>Romantic</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J185" s="28"/>
       <c r="K185" s="28" t="s">
-        <v>799</v>
+        <v>497</v>
       </c>
       <c r="L185" s="28"/>
       <c r="M185" s="39">
@@ -39241,17 +39222,19 @@
       <c r="N185" s="28"/>
       <c r="O185" s="34"/>
       <c r="P185" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q185" s="28"/>
-      <c r="R185" s="28"/>
+      <c r="R185" s="28" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="186" spans="1:18" ht="17.25" customHeight="1">
       <c r="A186" s="29">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C186" s="28"/>
       <c r="D186" s="31" t="s">
@@ -39275,7 +39258,7 @@
       </c>
       <c r="J186" s="28"/>
       <c r="K186" s="28" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L186" s="28"/>
       <c r="M186" s="39">
@@ -39284,25 +39267,25 @@
       <c r="N186" s="28"/>
       <c r="O186" s="34"/>
       <c r="P186" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q186" s="28"/>
       <c r="R186" s="28"/>
     </row>
     <row r="187" spans="1:18" ht="17.25" customHeight="1">
       <c r="A187" s="29">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C187" s="28"/>
       <c r="D187" s="31" t="s">
-        <v>803</v>
+        <v>478</v>
       </c>
       <c r="E187" s="24" t="str">
         <f>_xlfn.XLOOKUP(D187, Composer!A:A, Composer!B:B, "-")</f>
-        <v>이루마</v>
+        <v>여러 작곡가 (팝/뉴에이지)</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="24" t="str">
@@ -39314,32 +39297,30 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="J187" s="28"/>
       <c r="K187" s="28" t="s">
-        <v>500</v>
+        <v>801</v>
       </c>
       <c r="L187" s="28"/>
       <c r="M187" s="39">
         <v>3</v>
       </c>
-      <c r="N187" s="28" t="s">
-        <v>498</v>
-      </c>
+      <c r="N187" s="28"/>
       <c r="O187" s="34"/>
       <c r="P187" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q187" s="28"/>
       <c r="R187" s="28"/>
     </row>
     <row r="188" spans="1:18" ht="17.25" customHeight="1">
       <c r="A188" s="29">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C188" s="28"/>
       <c r="D188" s="31" t="s">
@@ -39359,44 +39340,42 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="J188" s="28"/>
       <c r="K188" s="28" t="s">
-        <v>806</v>
+        <v>500</v>
       </c>
       <c r="L188" s="28"/>
       <c r="M188" s="39">
         <v>3</v>
       </c>
       <c r="N188" s="28" t="s">
-        <v>774</v>
+        <v>498</v>
       </c>
       <c r="O188" s="34"/>
       <c r="P188" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q188" s="28"/>
       <c r="R188" s="28"/>
     </row>
     <row r="189" spans="1:18" ht="17.25" customHeight="1">
       <c r="A189" s="29">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C189" s="28"/>
       <c r="D189" s="31" t="s">
-        <v>478</v>
+        <v>803</v>
       </c>
       <c r="E189" s="24" t="str">
         <f>_xlfn.XLOOKUP(D189, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (팝/뉴에이지)</v>
-      </c>
-      <c r="F189" s="50" t="s">
-        <v>499</v>
-      </c>
+        <v>이루마</v>
+      </c>
+      <c r="F189" s="28"/>
       <c r="G189" s="24" t="str">
         <f>_xlfn.XLOOKUP(D189, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39406,40 +39385,44 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="J189" s="28"/>
       <c r="K189" s="28" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="L189" s="28"/>
       <c r="M189" s="39">
-        <v>2</v>
-      </c>
-      <c r="N189" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="N189" s="28" t="s">
+        <v>774</v>
+      </c>
       <c r="O189" s="34"/>
       <c r="P189" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q189" s="28"/>
       <c r="R189" s="28"/>
     </row>
     <row r="190" spans="1:18" ht="17.25" customHeight="1">
       <c r="A190" s="29">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C190" s="28"/>
       <c r="D190" s="31" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="E190" s="24" t="str">
         <f>_xlfn.XLOOKUP(D190, Composer!A:A, Composer!B:B, "-")</f>
-        <v>앙드레 가뇽</v>
-      </c>
-      <c r="F190" s="28"/>
+        <v>여러 작곡가 (팝/뉴에이지)</v>
+      </c>
+      <c r="F190" s="50" t="s">
+        <v>499</v>
+      </c>
       <c r="G190" s="24" t="str">
         <f>_xlfn.XLOOKUP(D190, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39449,11 +39432,11 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J190" s="28"/>
       <c r="K190" s="28" t="s">
-        <v>508</v>
+        <v>809</v>
       </c>
       <c r="L190" s="28"/>
       <c r="M190" s="39">
@@ -39462,26 +39445,27 @@
       <c r="N190" s="28"/>
       <c r="O190" s="34"/>
       <c r="P190" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Q190" s="28"/>
       <c r="R190" s="28"/>
     </row>
     <row r="191" spans="1:18" ht="17.25" customHeight="1">
       <c r="A191" s="29">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C191" s="28"/>
       <c r="D191" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E191" s="24" t="str">
         <f>_xlfn.XLOOKUP(D191, Composer!A:A, Composer!B:B, "-")</f>
-        <v>유키 구라모토</v>
-      </c>
+        <v>앙드레 가뇽</v>
+      </c>
+      <c r="F191" s="28"/>
       <c r="G191" s="24" t="str">
         <f>_xlfn.XLOOKUP(D191, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39491,41 +39475,38 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="J191" s="28"/>
       <c r="K191" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L191" s="28"/>
       <c r="M191" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N191" s="28"/>
       <c r="O191" s="34"/>
       <c r="P191" s="28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q191" s="28"/>
       <c r="R191" s="28"/>
     </row>
     <row r="192" spans="1:18" ht="17.25" customHeight="1">
       <c r="A192" s="29">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C192" s="28"/>
       <c r="D192" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E192" s="24" t="str">
         <f>_xlfn.XLOOKUP(D192, Composer!A:A, Composer!B:B, "-")</f>
-        <v>히사이시 조</v>
-      </c>
-      <c r="F192" s="28" t="s">
-        <v>510</v>
+        <v>유키 구라모토</v>
       </c>
       <c r="G192" s="24" t="str">
         <f>_xlfn.XLOOKUP(D192, Composer!A:A, Composer!C:C, "-")</f>
@@ -39536,42 +39517,42 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>511</v>
+        <v>812</v>
       </c>
       <c r="J192" s="28"/>
       <c r="K192" s="28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L192" s="28"/>
       <c r="M192" s="39">
         <v>3</v>
       </c>
-      <c r="N192" s="28" t="s">
-        <v>814</v>
-      </c>
+      <c r="N192" s="28"/>
       <c r="O192" s="34"/>
       <c r="P192" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q192" s="28"/>
       <c r="R192" s="28"/>
     </row>
     <row r="193" spans="1:18" ht="17.25" customHeight="1">
       <c r="A193" s="29">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C193" s="28"/>
       <c r="D193" s="31" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="E193" s="24" t="str">
         <f>_xlfn.XLOOKUP(D193, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (팝/뉴에이지)</v>
-      </c>
-      <c r="F193" s="28"/>
+        <v>히사이시 조</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>510</v>
+      </c>
       <c r="G193" s="24" t="str">
         <f>_xlfn.XLOOKUP(D193, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39580,29 +39561,33 @@
         <f>_xlfn.XLOOKUP(E193, Composer!B:B, Composer!D:D, "-")</f>
         <v>Pop/New Age</v>
       </c>
-      <c r="I193" s="28"/>
+      <c r="I193" s="28" t="s">
+        <v>511</v>
+      </c>
       <c r="J193" s="28"/>
       <c r="K193" s="28" t="s">
-        <v>816</v>
+        <v>512</v>
       </c>
       <c r="L193" s="28"/>
       <c r="M193" s="39">
         <v>3</v>
       </c>
-      <c r="N193" s="28"/>
+      <c r="N193" s="28" t="s">
+        <v>814</v>
+      </c>
       <c r="O193" s="34"/>
       <c r="P193" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q193" s="28"/>
       <c r="R193" s="28"/>
     </row>
     <row r="194" spans="1:18" ht="17.25" customHeight="1">
       <c r="A194" s="29">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C194" s="28"/>
       <c r="D194" s="31" t="s">
@@ -39624,7 +39609,7 @@
       <c r="I194" s="28"/>
       <c r="J194" s="28"/>
       <c r="K194" s="28" t="s">
-        <v>513</v>
+        <v>816</v>
       </c>
       <c r="L194" s="28"/>
       <c r="M194" s="39">
@@ -39633,17 +39618,17 @@
       <c r="N194" s="28"/>
       <c r="O194" s="34"/>
       <c r="P194" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q194" s="28"/>
       <c r="R194" s="28"/>
     </row>
     <row r="195" spans="1:18" ht="17.25" customHeight="1">
       <c r="A195" s="29">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C195" s="28"/>
       <c r="D195" s="31" t="s">
@@ -39653,9 +39638,7 @@
         <f>_xlfn.XLOOKUP(D195, Composer!A:A, Composer!B:B, "-")</f>
         <v>여러 작곡가 (팝/뉴에이지)</v>
       </c>
-      <c r="F195" s="28" t="s">
-        <v>819</v>
-      </c>
+      <c r="F195" s="28"/>
       <c r="G195" s="24" t="str">
         <f>_xlfn.XLOOKUP(D195, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39664,12 +39647,10 @@
         <f>_xlfn.XLOOKUP(E195, Composer!B:B, Composer!D:D, "-")</f>
         <v>Pop/New Age</v>
       </c>
-      <c r="I195" s="28" t="s">
-        <v>805</v>
-      </c>
+      <c r="I195" s="28"/>
       <c r="J195" s="28"/>
       <c r="K195" s="28" t="s">
-        <v>820</v>
+        <v>513</v>
       </c>
       <c r="L195" s="28"/>
       <c r="M195" s="39">
@@ -39678,17 +39659,17 @@
       <c r="N195" s="28"/>
       <c r="O195" s="34"/>
       <c r="P195" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q195" s="28"/>
       <c r="R195" s="28"/>
     </row>
     <row r="196" spans="1:18" ht="17.25" customHeight="1">
       <c r="A196" s="29">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C196" s="28"/>
       <c r="D196" s="31" t="s">
@@ -39698,7 +39679,9 @@
         <f>_xlfn.XLOOKUP(D196, Composer!A:A, Composer!B:B, "-")</f>
         <v>여러 작곡가 (팝/뉴에이지)</v>
       </c>
-      <c r="F196" s="28"/>
+      <c r="F196" s="28" t="s">
+        <v>819</v>
+      </c>
       <c r="G196" s="24" t="str">
         <f>_xlfn.XLOOKUP(D196, Composer!A:A, Composer!C:C, "-")</f>
         <v>팝/뉴에이지</v>
@@ -39708,11 +39691,11 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="J196" s="28"/>
       <c r="K196" s="28" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="L196" s="28"/>
       <c r="M196" s="39">
@@ -39721,17 +39704,17 @@
       <c r="N196" s="28"/>
       <c r="O196" s="34"/>
       <c r="P196" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q196" s="28"/>
       <c r="R196" s="28"/>
     </row>
     <row r="197" spans="1:18" ht="17.25" customHeight="1">
       <c r="A197" s="29">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C197" s="28"/>
       <c r="D197" s="31" t="s">
@@ -39755,7 +39738,7 @@
       </c>
       <c r="J197" s="28"/>
       <c r="K197" s="28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L197" s="28"/>
       <c r="M197" s="39">
@@ -39764,17 +39747,17 @@
       <c r="N197" s="28"/>
       <c r="O197" s="34"/>
       <c r="P197" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q197" s="28"/>
       <c r="R197" s="28"/>
     </row>
     <row r="198" spans="1:18" ht="17.25" customHeight="1">
       <c r="A198" s="29">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C198" s="28"/>
       <c r="D198" s="31" t="s">
@@ -39794,32 +39777,30 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="J198" s="28"/>
       <c r="K198" s="28" t="s">
-        <v>514</v>
+        <v>824</v>
       </c>
       <c r="L198" s="28"/>
       <c r="M198" s="39">
         <v>3</v>
       </c>
-      <c r="N198" s="28" t="s">
-        <v>826</v>
-      </c>
+      <c r="N198" s="28"/>
       <c r="O198" s="34"/>
       <c r="P198" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q198" s="28"/>
       <c r="R198" s="28"/>
     </row>
     <row r="199" spans="1:18" ht="17.25" customHeight="1">
       <c r="A199" s="29">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C199" s="28"/>
       <c r="D199" s="31" t="s">
@@ -39839,38 +39820,40 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="J199" s="28"/>
       <c r="K199" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L199" s="28"/>
       <c r="M199" s="39">
         <v>3</v>
       </c>
-      <c r="N199" s="28"/>
+      <c r="N199" s="28" t="s">
+        <v>826</v>
+      </c>
       <c r="O199" s="34"/>
       <c r="P199" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q199" s="28"/>
       <c r="R199" s="28"/>
     </row>
     <row r="200" spans="1:18" ht="17.25" customHeight="1">
       <c r="A200" s="29">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C200" s="28"/>
       <c r="D200" s="31" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="E200" s="24" t="str">
         <f>_xlfn.XLOOKUP(D200, Composer!A:A, Composer!B:B, "-")</f>
-        <v>조지 윈스턴</v>
+        <v>여러 작곡가 (팝/뉴에이지)</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="24" t="str">
@@ -39882,11 +39865,11 @@
         <v>Pop/New Age</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J200" s="28"/>
       <c r="K200" s="28" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L200" s="28"/>
       <c r="M200" s="39">
@@ -39895,60 +39878,60 @@
       <c r="N200" s="28"/>
       <c r="O200" s="34"/>
       <c r="P200" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q200" s="28"/>
       <c r="R200" s="28"/>
     </row>
     <row r="201" spans="1:18" ht="17.25" customHeight="1">
       <c r="A201" s="29">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C201" s="28"/>
       <c r="D201" s="31" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E201" s="24" t="str">
         <f>_xlfn.XLOOKUP(D201, Composer!A:A, Composer!B:B, "-")</f>
-        <v>여러 작곡가 (재즈)</v>
+        <v>조지 윈스턴</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="24" t="str">
         <f>_xlfn.XLOOKUP(D201, Composer!A:A, Composer!C:C, "-")</f>
-        <v>재즈</v>
+        <v>팝/뉴에이지</v>
       </c>
       <c r="H201" s="24" t="str">
         <f>_xlfn.XLOOKUP(E201, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Jazz</v>
+        <v>Pop/New Age</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>769</v>
+        <v>830</v>
       </c>
       <c r="J201" s="28"/>
       <c r="K201" s="28" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L201" s="28"/>
       <c r="M201" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N201" s="28"/>
       <c r="O201" s="34"/>
       <c r="P201" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q201" s="28"/>
       <c r="R201" s="28"/>
     </row>
     <row r="202" spans="1:18" ht="17.25" customHeight="1">
       <c r="A202" s="29">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>525</v>
+        <v>831</v>
       </c>
       <c r="C202" s="28"/>
       <c r="D202" s="31" t="s">
@@ -39968,26 +39951,106 @@
         <v>Jazz</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>524</v>
+        <v>769</v>
       </c>
       <c r="J202" s="28"/>
       <c r="K202" s="28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L202" s="28"/>
       <c r="M202" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N202" s="28"/>
       <c r="O202" s="34"/>
       <c r="P202" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q202" s="28"/>
       <c r="R202" s="28"/>
     </row>
-    <row r="203" spans="1:18" ht="17.25" customHeight="1"/>
-    <row r="204" spans="1:18" ht="17.25" customHeight="1"/>
+    <row r="203" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A203" s="29">
+        <v>200</v>
+      </c>
+      <c r="B203" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C203" s="28"/>
+      <c r="D203" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="E203" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D203, Composer!A:A, Composer!B:B, "-")</f>
+        <v>여러 작곡가 (재즈)</v>
+      </c>
+      <c r="F203" s="28"/>
+      <c r="G203" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D203, Composer!A:A, Composer!C:C, "-")</f>
+        <v>재즈</v>
+      </c>
+      <c r="H203" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E203, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Jazz</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="J203" s="28"/>
+      <c r="K203" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="L203" s="28"/>
+      <c r="M203" s="39">
+        <v>3</v>
+      </c>
+      <c r="N203" s="28"/>
+      <c r="O203" s="34"/>
+      <c r="P203" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q203" s="28"/>
+      <c r="R203" s="28"/>
+    </row>
+    <row r="204" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A204" s="29">
+        <v>201</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="C204" s="28"/>
+      <c r="D204" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="E204" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D204, Composer!A:A, Composer!B:B, "-")</f>
+        <v>니콜라이 기르셰비치 카푸스틴</v>
+      </c>
+      <c r="F204" s="28"/>
+      <c r="G204" s="24" t="str">
+        <f>_xlfn.XLOOKUP(D204, Composer!A:A, Composer!C:C, "-")</f>
+        <v>현대</v>
+      </c>
+      <c r="H204" s="24" t="str">
+        <f>_xlfn.XLOOKUP(E204, Composer!B:B, Composer!D:D, "-")</f>
+        <v>Contemporary</v>
+      </c>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="L204" s="28"/>
+      <c r="M204" s="35">
+        <v>3</v>
+      </c>
+      <c r="N204" s="28"/>
+      <c r="O204" s="34"/>
+      <c r="P204" s="28"/>
+      <c r="Q204" s="28"/>
+      <c r="R204" s="28"/>
+    </row>
     <row r="205" spans="1:18" ht="17.25" customHeight="1"/>
     <row r="206" spans="1:18" ht="17.25" customHeight="1"/>
     <row r="207" spans="1:18" ht="17.25" customHeight="1"/>
@@ -40786,49 +40849,49 @@
     <row r="1000" s="4" customFormat="1" ht="17.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A181 A183:A202">
-    <cfRule type="expression" dxfId="24" priority="1">
+  <conditionalFormatting sqref="A3:A204">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>NOT(AND(B3&lt;&gt;"", M3&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(B3&lt;&gt;"", M3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J202">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+  <conditionalFormatting sqref="A182:A183">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J204">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M202">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+  <conditionalFormatting sqref="M3:M204">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="A3:A202" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="A3:A204" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="M3:M202" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="M3:M204" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -40838,18 +40901,12 @@
     <hyperlink ref="Q53" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="Q54" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="Q55" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Q56" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q57" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="Q64" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q89" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="Q90" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q91" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="Q104" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="Q120" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="Q57" r:id="rId5" xr:uid="{261526D0-14E2-4B1F-A43F-95561AABD934}"/>
+    <hyperlink ref="Q56" r:id="rId6" xr:uid="{E628BEFD-9E05-4D42-B13D-FD6ED7029498}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -40857,7 +40914,7 @@
           <x14:formula1>
             <xm:f>Composer!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D202</xm:sqref>
+          <xm:sqref>D3:D204</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -52228,41 +52285,41 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A3:A181 A183:A202">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>NOT(AND(B3&lt;&gt;"", M3&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(B3&lt;&gt;"", M3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J3:J202">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M202">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/api/catalog/catalog.xlsx
+++ b/app/api/catalog/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DEV\snupia_utils\snupia_utils_front\app\api\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03FA9E-5AE8-4F04-AB6A-48872E12AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A679F3-20B5-4BF1-AD85-4901757806CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="911">
   <si>
     <t>title</t>
   </si>
@@ -28828,6 +28828,10 @@
   </si>
   <si>
     <t>Eight Concert Études op.40 piano solo - Prelude / Reverie / Toccatina / Reminiscence / Raillery / Pastoral / Intermezzo / Finale</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>임희준</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -29499,7 +29503,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -29661,22 +29665,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED873"/>
-          <bgColor rgb="FF8ED873"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -30996,8 +30984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A204" sqref="A1:A204"/>
+    <sheetView tabSelected="1" topLeftCell="L151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -37746,9 +37734,7 @@
       <c r="M152" s="35">
         <v>3</v>
       </c>
-      <c r="N152" s="28" t="s">
-        <v>646</v>
-      </c>
+      <c r="N152" s="28"/>
       <c r="O152" s="34"/>
       <c r="P152" s="28" t="s">
         <v>413</v>
@@ -37791,7 +37777,9 @@
       <c r="M153" s="35">
         <v>3</v>
       </c>
-      <c r="N153" s="28"/>
+      <c r="N153" s="50" t="s">
+        <v>910</v>
+      </c>
       <c r="O153" s="34"/>
       <c r="P153" s="28" t="s">
         <v>417</v>
@@ -38766,7 +38754,7 @@
       </c>
       <c r="O175" s="34"/>
       <c r="P175" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q175" s="28"/>
       <c r="R175" s="28" t="s">
@@ -38811,7 +38799,7 @@
       <c r="N176" s="28"/>
       <c r="O176" s="34"/>
       <c r="P176" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q176" s="28"/>
       <c r="R176" s="28" t="s">
@@ -40850,40 +40838,40 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A3:A204">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>NOT(AND(B3&lt;&gt;"", M3&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(B3&lt;&gt;"", M3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:A183">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J204">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M204">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52285,40 +52273,40 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A3:A181 A183:A202">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>NOT(AND(B3&lt;&gt;"", M3&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(B3&lt;&gt;"", M3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>NOT(AND(C182&lt;&gt;"", M182&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(C182&lt;&gt;"", M182&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J202">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M202">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/api/catalog/catalog.xlsx
+++ b/app/api/catalog/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\DEV\snupia_utils\snupia_utils_front\app\api\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A679F3-20B5-4BF1-AD85-4901757806CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF7B0A-EF55-456A-8513-6A49F5303D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="913">
   <si>
     <t>title</t>
   </si>
@@ -28811,10 +28811,6 @@
     </r>
   </si>
   <si>
-    <t>2025.05.26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>김연준, 김승민</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -28833,6 +28829,17 @@
   <si>
     <t>임희준</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>노경모</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대</t>
   </si>
 </sst>
 </file>
@@ -29914,7 +29921,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -29941,10 +29948,10 @@
         <v>901</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>905</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
@@ -30984,8 +30991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P177" sqref="P177"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N200" sqref="N200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -33463,7 +33470,7 @@
       </c>
       <c r="J55" s="28"/>
       <c r="K55" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L55" s="28"/>
       <c r="M55" s="35">
@@ -33510,7 +33517,7 @@
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L56" s="28"/>
       <c r="M56" s="35">
@@ -36500,11 +36507,11 @@
       <c r="F124" s="28"/>
       <c r="G124" s="24" t="str">
         <f>_xlfn.XLOOKUP(D124, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H124" s="24" t="str">
         <f>_xlfn.XLOOKUP(E124, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I124" s="28" t="s">
         <v>591</v>
@@ -36545,11 +36552,11 @@
       <c r="F125" s="28"/>
       <c r="G125" s="24" t="str">
         <f>_xlfn.XLOOKUP(D125, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H125" s="24" t="str">
         <f>_xlfn.XLOOKUP(E125, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>591</v>
@@ -36590,11 +36597,11 @@
       <c r="F126" s="28"/>
       <c r="G126" s="24" t="str">
         <f>_xlfn.XLOOKUP(D126, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H126" s="24" t="str">
         <f>_xlfn.XLOOKUP(E126, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I126" s="28" t="s">
         <v>591</v>
@@ -36635,11 +36642,11 @@
       <c r="F127" s="28"/>
       <c r="G127" s="24" t="str">
         <f>_xlfn.XLOOKUP(D127, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H127" s="24" t="str">
         <f>_xlfn.XLOOKUP(E127, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>591</v>
@@ -36680,11 +36687,11 @@
       <c r="F128" s="28"/>
       <c r="G128" s="24" t="str">
         <f>_xlfn.XLOOKUP(D128, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H128" s="24" t="str">
         <f>_xlfn.XLOOKUP(E128, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>591</v>
@@ -37155,11 +37162,11 @@
       <c r="F139" s="28"/>
       <c r="G139" s="24" t="str">
         <f>_xlfn.XLOOKUP(D139, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H139" s="24" t="str">
         <f>_xlfn.XLOOKUP(E139, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I139" s="28" t="s">
         <v>589</v>
@@ -37778,7 +37785,7 @@
         <v>3</v>
       </c>
       <c r="N153" s="50" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O153" s="34"/>
       <c r="P153" s="28" t="s">
@@ -39863,7 +39870,9 @@
       <c r="M200" s="39">
         <v>3</v>
       </c>
-      <c r="N200" s="28"/>
+      <c r="N200" s="50" t="s">
+        <v>910</v>
+      </c>
       <c r="O200" s="34"/>
       <c r="P200" s="28" t="s">
         <v>557</v>
@@ -40005,7 +40014,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C204" s="28"/>
       <c r="D204" s="31" t="s">
@@ -40027,7 +40036,7 @@
       <c r="I204" s="28"/>
       <c r="J204" s="28"/>
       <c r="K204" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L204" s="28"/>
       <c r="M204" s="35">
@@ -46377,11 +46386,11 @@
       <c r="F123" s="28"/>
       <c r="G123" s="24" t="str">
         <f>_xlfn.XLOOKUP(D123, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H123" s="24" t="str">
         <f>_xlfn.XLOOKUP(E123, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I123" s="28" t="s">
         <v>591</v>
@@ -46422,11 +46431,11 @@
       <c r="F124" s="28"/>
       <c r="G124" s="24" t="str">
         <f>_xlfn.XLOOKUP(D124, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H124" s="24" t="str">
         <f>_xlfn.XLOOKUP(E124, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I124" s="28" t="s">
         <v>591</v>
@@ -46467,11 +46476,11 @@
       <c r="F125" s="28"/>
       <c r="G125" s="24" t="str">
         <f>_xlfn.XLOOKUP(D125, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H125" s="24" t="str">
         <f>_xlfn.XLOOKUP(E125, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>591</v>
@@ -46512,11 +46521,11 @@
       <c r="F126" s="28"/>
       <c r="G126" s="24" t="str">
         <f>_xlfn.XLOOKUP(D126, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H126" s="24" t="str">
         <f>_xlfn.XLOOKUP(E126, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I126" s="28" t="s">
         <v>591</v>
@@ -46557,11 +46566,11 @@
       <c r="F127" s="28"/>
       <c r="G127" s="24" t="str">
         <f>_xlfn.XLOOKUP(D127, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H127" s="24" t="str">
         <f>_xlfn.XLOOKUP(E127, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>591</v>
@@ -47032,11 +47041,11 @@
       <c r="F138" s="28"/>
       <c r="G138" s="24" t="str">
         <f>_xlfn.XLOOKUP(D138, Composer!A:A, Composer!C:C, "-")</f>
-        <v>낭만</v>
+        <v>근대</v>
       </c>
       <c r="H138" s="24" t="str">
         <f>_xlfn.XLOOKUP(E138, Composer!B:B, Composer!D:D, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
       <c r="I138" s="28" t="s">
         <v>589</v>
@@ -52355,8 +52364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A1:D100"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -52914,11 +52923,11 @@
         <v>874</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>835</v>
+        <v>912</v>
       </c>
       <c r="D37" s="35" t="str">
         <f>_xlfn.XLOOKUP(C37, Era!A:A, Era!B:B, "-")</f>
-        <v>Romantic</v>
+        <v>Modern</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1">
